--- a/news_data/2018_06.xlsx
+++ b/news_data/2018_06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,36 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>지역관광발전 1등급에 강원도·경기도·전라남도·제주도</t>
+  </si>
+  <si>
+    <t>제주도 관광객 지출 많은 곳...외국인 '연동', 내국인 '공항'</t>
+  </si>
+  <si>
+    <t>“제주도 관광정책 실명제로 접근해야”…제주관광학회 세미나</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 1833억원 최대 1년 상환유예 결정</t>
+  </si>
+  <si>
+    <t>7월 제주도 여행 10선...놓치면 후회할 관광명소는?</t>
+  </si>
+  <si>
+    <t>제주도, '관광+아카데미' 교육과정 수강생 모집</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 현장체험 행사 운영</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '최우수 부스 운영상' 수상</t>
+  </si>
+  <si>
+    <t>제주도, 터키 관광수도 안탈리아서 공동 생태사진전 개최</t>
+  </si>
+  <si>
+    <t>제주도관광협회장배 아마추어 친선골프대회 '성황'</t>
+  </si>
+  <si>
     <t>"여름철 피서는 무조건 제주도!" 일본 관광객 사로잡기 돌입</t>
   </si>
   <si>
@@ -52,28 +82,58 @@
     <t>제주도 공식 여행정보 포털 '탐나오' 한국국제관광전서 부각돼</t>
   </si>
   <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:23 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N3 이전 다음 "여름철 피서는 무조건 제주도!" 일본 관광객 사로잡기 돌입 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 사회 "여름철 피서는 무조건 제주도!" 일본 관광객 사로잡기 돌입 김은애 기자 승인 2018.06.12 16:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주관광공사, '한국관광 페스티벌 2018' 참가 "여름 휴양지 이미지 홍보로 일본인 관광객 사로잡기" '한국관광 페스티벌 2018' 현장. [미디어제주 김은애 기자] 제주특별자치도와 제주관광공사(사장 박홍배)는 12일(화)과 13일(수) 일본 도쿄돔시티 프리즘홀에서 개최되는 '한국관광 페스티벌 2018'에 참가해 일반 소비자와 업계 대상 제주관광 홍보를 진행한다. 12일(화)에는 일본 여행업계 관계자 50여명을 대상으로 B2B상담회를 실시하여, 세계자연유산 투어 상품 판매를 고집하는 일본 여행업계에 리조트와 여름철 해수욕장 등이 포함된 새로운 휴양 상품을 제안한다. 페스티벌 기간에 개최되는 일반소비자 행사에서는 여름방학 시즌에 맞춰 FIT 수요 유치를 위한 홍보를 진행한다. 특히 여름철 가족단위 수요 유치를 위해 유명 여름철 관광지 과녁 맞추기 이벤트 등을 개최하고, 가깝고 친근한 리조트로서의 이미지 구축에 나선다. 그 밖에도 13일(수) 도쿄 빅사이트에서 개최되는 'Tokyo Cafe Show 2018'에도 참가하여, 일본의 카페전문 미디어를 대상으로 해변카페, 숲속카페 등 제주의 카페 콘텐츠를 소개할 예정이다. 또한, 제주시와 우호협력도시인 도쿄 아라카와구 국제교류협회를 방문해 상호교류 행사 개최 등 교류 활성화를 위해 노력할 방침이다. 제주관광공사 관계자는 “여름철 휴양지라는 새로운 이미지 전달을 통해 최근 일본인관광객 증가세에 박차를 가하고, 인기 관광지인 하와이와 오키나와만큼 많은 관광객을 끌어들일 수 있도록 하겠다"며, "앞으로도 홍보사무소가 설치되어있는 도쿄, 오사카, 후쿠오카 등 대도시를 중심으로 TV CM과 일반소비자 대상 설명회 등을 통해 제주의 이미지를 높여가도록 하겠다"고 밝혔다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김은애 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
-  </si>
-  <si>
-    <t>전기차 타고 제주도 여행...'전기차 자가운전' 관광상품 호응 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 전기차 타고 제주도 여행...'전기차 자가운전' 관광상품 호응 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 전기차 타고 제주도 여행...'전기차 자가운전' 관광상품 호응 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.06.11 13:51 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × '카본 프리 아일랜드 2030'을 활용한 첫 관광상품인 '싱가포르 전기자동차 자가운전 상품' 제주 일정이 성공리에 마무리됐다.제주특별자치도와 제주관광공사(사장 박홍배)는 한국관광공사, 싱가포르 자동차협회(Automobile Association of Singapore), 아시아나항공, 현지 언론사(Lianhe Wanbao) 등과 함께 개발해 지난 7일부터 닷새간 진행된 '전기자동차 자가운전(Fly-Drive to Jeju Island)' 상품의 제주 일정이 관광객들의 호응 속에 마무리됐다고 11일 밝혔다. 이번 상품은 80여 명의 관광객이 전기자동차 35대를 이용해 제주 곳곳을 찾는 일정으로 진행됐다. 이들은 제주시 민속오일시장, 우도, 성산일출봉, 수월봉 등 주요 관광지를 방문하는 한편, 레일바이크와 잠수함, 승마 등 다양한 체험프로그램도 경험했다. 참가자들은 전기자동차를 활용한 자가운전 상품에 높은 만족감을 나타냈다. 참가자 탄 콕 타이(Tan Kok Thye)씨는 "전기차에 대한 관심이 많아 이번 상품을 구매했는데, 제주에 전기차가 많아 놀랐고 작동방법이나 효율성, 드라이브 코스 등 함께 온 가족 모두 만족했다"며 만족도를 드러냈다. 이번 상품에 동행한 현지 언론사 완바오(Wanbao)의 고 신 텍(Goh Sin Teck) 편집장도 "아직 호텔이나 관광지에 충전시설이 부족하지만, 전기차를 이용하는데 큰 불편을 느끼지 못했다"며 "전기차가 없는 싱가포르 관광객들에게 매력적인 콘텐츠가 될 것"이라고 밝혔다. 제주관광공사와 상품을 공동으로 개발한 싱가포르 자동차협회의 버나드 테이(Bernard Tay) 회장은 "상품 참가자들의 만족도가 매우 높다”며 “추가적인 협의를 통해 전기차 자가운전 상품을 지속적으로 만들겠다"고 밝혔다. 한편, 제주관광공사는 자가운전이 가능한 싱가포르와 말레이시아 등을 대상으로 전기차 콘텐츠를 지속적으로 홍보하는 한편, 에코랠리 등을 활용한 특화상품도 개발해나갈 계획이다. 이를 위해 제주도내 렌터카 업계 및 관련 기관과의 협업을 통해 외국인들이 보다 쉽게 전기차를 이용할 수 있도록 충전기 외국어 지원, 홍보물 제작에도 만전을 기해나가기로 했다. 제주관광공사 관계자는 "제주의 청정 이미지 홍보 효과를 극대화하기 위해 앞으로 카본 프리 아일랜드 2030 정책 중 하나인 전기차를 활용한 마케팅을 강화해 나가겠다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>여름철 떠나는 제주도 중문관광단지 흑돼지 맛집 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-04 06:05 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 여름철 떠나는 제주도 중문관광단지 흑돼지 맛집 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 여름철 떠나는 제주도 중문관광단지 흑돼지 맛집 유지형 승인 2018.06.15 16:39 수정 2018.06.15 16:39 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × ▲ 사진 제공 : 돈이랑 국내외 여행객들이 가장 많이 찾는 여름철 휴가지는 제주도, 최근 제주도 여행은 식도락 중심의 맛집 여행이 중심을 이루고 있다. 특히 유명 관광지도 돌아보고 제주도에서만 맛볼 수 있는 맛집 여행이 대세로 떠오르고 있다. 제주도 하면 가장 먼저 떠오른 곳은 중문관광단지로 수려한 자연경관과 함께 제주도 흑돼지 연탄구이 맛집이 즐비하다. 중문관광단지 인근의 흑돼지 연탄구이 전문점인 돈이랑 관계자는 “제주도 여행 트랜드는 유명 관광지 탐방과 함께 맛집을 찾아 떠나는 여행으로 변화하고 있다.”며 “특히 제주도에서만 맛볼 수 있는 원조의 맛을 찾는 여행객들이 부쩍 늘고 있다”고 이야기 하고 있다. 흑돼지 전문점인 돈이랑이 이야기하는 맛집 레시피의 시작은 흑돼지 청정사육단계부터 시작한다. 현재 돈이랑은 흑돼지 청정사육단계 HACCP 인증을 획득하고 무항상제 명품 흑돼지로 국내 유명백화점에 납품을 하고 있다.  돈이랑이 말하는 흑돼지 청정사육은 우선 지한 180미터에서 퍼올린 미네랄의 보고 화산암반수로 흑돼지를 사육하고 있으며, 이는 곧 위생적이고 미네랄이 풍부한 흑돼지 고기를 맛볼 수 있다는 것이다. 또한 돈이랑이 말하는 흑돼지 맛집 레시피의 두번째는 은은한 연탄불에서 직접구운 흑돼지 요리로 두툼한 흑돼지가 연탄불 구이에 바삭함과 부드러운 맛을 함께 느낄 수 있다는 것이다. 한편 돈이랑은 연탄불 구이에서 최상의 맛을 위한 고기를 두께를 정형화 하여 제공하고 있는데, 바삭함과 부드러운 맛이 특징이다. 현재 돈이랑은 여름철 관광객들을 맞이 하기 위해 레스토랑의 코스요리처럼 격식을 제공함은 물론 있는 저녁식사의 추억을 위해서 픽업서비스와 밤 12시까지 심야영업을 하고 있다.  /온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [잇츠브리핑] 반도체도 '미국산'으로…반도체 도시 인천 불똥 튀나 [잇츠브리핑] 반도체도 '미국산'으로…반도체 도시 인천 불똥 튀나 [잇츠브리핑] "아트센터인천 2단계, 잡화점식 대관장 전락 우려" [잇츠브리핑] "아트센터인천 2단계, 잡화점식 대관장 전락 우려" [잇츠브리핑] 광역시 최대 곡창지대 인천, 쌀 가격 폭락에 농심 철렁 [잇츠브리핑] 광역시 최대 곡창지대 인천, 쌀 가격 폭락에 농심 철렁 기획특집 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [남극에서 온 편지] 9.작지만 큰 변화 [새로운 희망 경기교육] 시흥 군자디지털과학고등학교 경기도일자리재단 '잡아바', 청년 희망플랫폼 자리매김 [인터뷰] 박철민 연천군 고려인삼 영농법인 대표 “청정 연천서 계약재배…억대 농부된 비결” [인터뷰] 김현광 수원문화재단 대표 “시민 문화 향유 기회 확대할 것” [예술공간의 발견] 9. 인천의 독립예술영화관 [박창호 해양특위 위원장에 듣는다] “해양도시 인천, 100년 미래 먹거리 찾는다” [구도 인천] 구도의 기록자들…김노천 사진가·김은식 작가 [구도 인천] 구도의 산증인들…채병용 코치·배수현 치어리더 [잇츠레터]'딸 간수 잘하시라' 피해자 모친도 위협한 스토킹범 [잇츠레터]'딸 간수 잘하시라' 피해자 모친도 위협한 스토킹범 [잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' [잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' [카드뉴스]똑똑한 AR·VR 개항장 여행, '인천e지' 앱 하나면 끝 [카드뉴스]똑똑한 AR·VR 개항장 여행, '인천e지' 앱 하나면 끝 [잇츠레터]"윤 대통령 비속어 논란? 미국은 개의치 않아" [잇츠레터]"윤 대통령 비속어 논란? 미국은 개의치 않아" [카드뉴스]인천시티투어 10월엔 '50% 할인' [카드뉴스]인천시티투어 10월엔 '50% 할인' 많이 본 뉴스 오늘 주간 월간 1"야외 테이블서 실컷 먹더니 도망…나이 먹고 왜 이러나" 2용인~오산 고속도로 강행…화성시 '부글부글' 3[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 4[이슈 &amp; 이슈] 송도유원지 해결, 더 이상 미룰 수는 없다 5고양시 창릉천 제2의 호수공원 청신호...한준호 의원 2700억 환경부 통합하천 공모사업 1차 통과 6“드론 600대 탄천 밤하늘 수 놓는다”...성남시 6일 ‘드론 라이트 쇼’ 7[단독] 인천공항 '항공정비 MRO' 날개 편다…아틀라스항공 정비고, 1활주로 북측 결정 8[영종 차별의 섬에서 기회의 땅으로] 1. 인천의 밀라노·브로드웨이 표류…'기대 반 우려 반' 9“돼지열병 업무 폭증한 공무원에 파주시의원 과한 행감자료 요구” 10한국지엠 부평공장 '전기차 생산 유치' 기대감 1젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 2도자기의 모든 것, 여주도자기페스타 다음 달 1일 개최 3인천시 '인천 UAM전용공항 예정지' 정부 전달 4한국민속촌, 경기도민 대상 입장 할인 제공 5[잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' 6"야외 테이블서 실컷 먹더니 도망…나이 먹고 왜 이러나" 7인천 노동자 평균 임금 369만원, 서울 455만원 대비 76% 수준 8경인고속도로 지하화 협약, 오늘 맺는다 9[구도 인천] 구도의 산증인들…채병용 코치·배수현 치어리더 10양주 회암사지 왕실축제, 어가행렬 주인공은 ‘시민’ 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3인력 '구멍' 경기소방본부에 정부 '설상가상' 감축 지시 4“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 5젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 6[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 7순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 8인천 남동공단 아닌 '남동산단'…주민들 '바로잡기' 민원 9한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 10송도 세브란스-배곧 서울대병원, 진검승부 '예고' 포토뉴스 [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] 돌아온 축제…인천이 들썩 [포토] 돌아온 축제…인천이 들썩 [포토] 광명교육지원청 도덕초 현장점검 [포토] 광명교육지원청 도덕초 현장점검 [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 4년여 만에 열린 '부평풍물대축제' [포토] 4년여 만에 열린 '부평풍물대축제' [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] 돌아온 축제…인천이 들썩 [포토] 광명교육지원청 도덕초 현장점검 [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 4년여 만에 열린 '부평풍물대축제' 기획특집 기획 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” 2022.10.03 기획 [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 2022.10.03 인천에 온 이주민들 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 2022.09.29 기획 [남극에서 온 편지] 9.작지만 큰 변화 2022.09.29 기획 [새로운 희망 경기교육] 시흥 군자디지털과학고등학교 2022.09.29 특집 경기도일자리재단 '잡아바', 청년 희망플랫폼 자리매김 2022.09.29 인터뷰 [인터뷰] 박철민 연천군 고려인삼 영농법인 대표 “청정 연천서 계약재배…억대 농부된 비결” 2022.09.29 인터뷰 [인터뷰] 김현광 수원문화재단 대표 “시민 문화 향유 기회 확대할 것” 2022.09.29 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 나만의 여행패키지 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-04 10:22 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 나만의 여행패키지 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 나만의 여행패키지 기자명 장준영 기자 승인 2018.06.11 16:52 댓글 0 조회수 : 1913 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바쁜 일상 속에서 벗어나 모처럼 떠나는 여행은 기분전환과 함께 지친 심신을 달래주는 힐링이 가능하다. 주말을 이용해 또는 휴일을 이용한 여행을 준비 중이라면 제주도를 권한다. 지금의 제주도는 그렇게 덥지도 않고 여름 휴가철 때만큼 붐비지도 않아 제주도를 편히 둘러보며 충분히 즐길 수 있는 시기다. 제주도의 구석구석을 여유롭게 둘러보면 좋겠지만 길지 않은 일정으로 제주도 여행 코스를 계획해야 한다면 서귀포시에 위치한 ‘중문관광단지’가 제격이다. 중문은 ‘천제연폭포’와 ‘주상절리대’, ‘색달 해변’과 ‘쉬리 언덕’, ‘별내린전망대’ 등 제주도 특유의 자연경관과 함께 다양한 관광요소들을 갖추고 있어 많은 관광객들이 찾는다. 먼저는 다수의 고급호텔과 그 외 숙박시설이 다양하게 있어 편리하게 숙박시설을 선택할 수 있고 아이들을 동반한 여행이라면 돌고래쇼를 볼 수 있는 ‘퍼시픽랜드’와 1700여 가지의 나무와 식물 견학이 가능한 ‘여미지식물원’, 각종 테마의 박물관 체험까지 다채롭게 제주도를 즐길 수 있다. 보고 듣고 느꼈다면 다음은 제주도를 맛볼 시간이다. 제주도에 왔으니 흑돼지 식사가 빠질 수 없는데, 중문동 2025-1에 위치한 ‘돈가득’은 독특하게 ‘복분자 흑돼지’로 입소문이 자자한 제주도 맛집이다. ‘돈가득’은 제주산 두툼한 흑돼지를 품질 좋은 참숯에 굽는데 굽기 직전 복분자를 뿌려 잡내를 없애준다. 그렇게 참숯으로 인한 훈연의 향과 복분자의 달달한 향이 그대로 배어 부드러운 육질, 풍부한 육즙과 더불어 입안에서 함께 퍼진다. 중문 흑돼지 맛집답게 주인장이 제주산 청정재료로 직접 만든 정갈한 반찬 역시 입맛을 돋운다. MBC에브리원 ‘맛있을 지도’ 방송에도 소개된바 있는 ‘돈가득’은 MC 개그맨 김경식과 일본여자연예인 사유리와 게스트 두 명까지, 총 4명의 출연진들의 입맛을 사로잡으며 눈길을 끌었다. 그렇게 지금은 관광객뿐 아니라 현지 주민들도 많이 찾는 서귀포 맛집으로 자리매김했다. 서귀포 중문 맛집 ‘돈가득’ 관계자는 “품질을 최우선으로 하여 모든 식재료를 준비하고 조리한다. 작은 밑반찬까지도 정성을 다했기 때문에 한 번 오시면 잊지 못하고 또 방문하실 수 있도록 항상 노력하고 있다. 방문하신 손님들의 작은 칭찬이 큰 힘이 된다. 계속 좋은 음식으로 보답할 것이다”라고 전했다. 화창한 6월 제주도로 떠나는 여행을 계획 중이라면 식도락은 ‘돈가득’에서, 예약 및 문의 가능하다. 장준영 기자 pamir63@busaneconomy.com 장준영 기자 pamir63@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 부산 사상구의회 ‘골목상권 공동체 육성 및 활성화 지원’ 조례 제정 더불어민주당 부산시당, “경남이 걷어찬 부울경 메가시티, 대통령실이 정리해야” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 선배가 들려주는 창업… 말랑하니의 ‘성장 스토리’ 르노코리아차, SM6 필 트림 새롭게 출시 부산 치의학 인재 양성 지산학 협력… 30호 브랜치 ㈜디오에 개소 XM3, 부산공장 생산 20만대 돌파 인기뉴스 1 HJ중공업, 거제공장 개장…일감 증가에 조선부문 투자확대 2 [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 3 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 4 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 5 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 6 국립해양박물관 소장 ‘감로도’, 부산시 문화재 지정 7 BNK캐피탈 “AI챗봇으로 고객편의·업무효율 제고” 8 캠코, 2384억원 규모 압류재산 공매…부산 32건 포함 포토뉴스 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 최신뉴스 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제21회 제주도 관광기념품 공모전 개최 &lt; 실시간뉴스 &lt; 정치/행정 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 10:03 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제21회 제주도 관광기념품 공모전 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치/행정 실시간뉴스 제21회 제주도 관광기념품 공모전 개최 기자명 박민호 기자 입력 2018.06.10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도는 다양한 관광기념품을 발굴·육성하고, 입상작에 대한 상품화 지원 등 관광기념품 경쟁력을 강화하기 위해 ‘제21회 제주특별자치도 관광기념품 공모전’을 개최한다고 10일 밝혔다.이번 공모전은 2개 분야(전통기념품 분야, 현대기념품분야)로 추진되며 한국적 고유의 색채를 보유하고 제주 전통문화를 계승하는 기념품, 현대적 디자인의 실용성이 강조된 민·공예품, 공산품, 가공품 등 국내외 관광객들이 구매할 수 있는 모든 관광기념품이 대상이다.응모자격에는 제한이 없으며, 공모전 출품을 원하는 업체 및 개인은 다음달 16일부터 31일까지 참가신청서와 출품작을 제주특별자치도 관광협회로 제출하면 된다.공모전 입상작은 상장(대상, 금상, 은상, 동상, 장려상, 입선)과 시상금(3500만원)이 수여되며, 상품화를 위한 다양한 지원이 이뤄진다.양기철 관광국장은“다양한 관광기념품 공모 선정을 통해 제주를 대표할 수 있는 관광상품이 개발 될 수 있도록 지속적인 노력을 해 나갈 것”이라며 “요즘 트렌드에 맞게 젊은 층이 많이 신청해 달라”고 당부했다. 박민호 기자 mino7791@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 코로나 빗장 풀리자 일본으로…제주 관광업계 ‘전전긍긍’ 포토뉴스 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>6월의 제주도, 서귀포 중문 관광과 흑돼지 맛집 기행 &lt; TV &lt; TV/연예 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 TV/연예 TV 6월의 제주도, 서귀포 중문 관광과 흑돼지 맛집 기행 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2018.06.02 17:20 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 사계절 내내 각각 다른 매력으로 언제 가도 매력적인 제주도는 파란하늘과 바람, 푸른 바다와 특산 음식까지, 여행의 요소를 다양하게 갖춘 우리나라의 대표적인 관광 섬이다. 특히 서귀포시에 위치한 중문은 천제연폭포와 주상절리, 색달 해변과 쉬리언덕, 여미지식물원과 다양한 박물관 관람까지, 다채롭게 제주도를 즐길 수 있는 위락단지로 무엇보다 제주특산음식으로 즐기는 식도락까지 가능해 많은 관광객들이 찾는 제주필수여행코스다. 중문동 2025-1에 위치한 복분자 흑돼지 맛집 ‘돈가득’은 제주도산 두툼한 흑돼지를 품질 좋은 참숯에 굽고 굽기 직전 복분자를 뿌려주어 잡내를 없애 독보적인 흑돼지 맛 자랑하는 제주도 맛집이다. MBC에브리원 ‘맛있을 지도’ 먹방 프로그램에도 방송되어 좋은 반응을 얻은바 있는 ‘돈가득’은 주인장이 제주산 청정재료로 직접 만든 정갈한 반찬들, 두툼한 흑돼지와 이곳만의 특제양파절임의 깔끔한 맛 조화에 반한 MC 김경식과 사유리가 어느 때보다도 푸짐한 먹방을 완성했다는 후문이다. 또 서귀포 맛집으로 관광객뿐 아니라 현지 주민들에게 입소문이 자자한 ‘돈가득’은 복분자 흑돼지뿐 아니라 점심특선메뉴로 제공되는 전복이 푸짐하게 들어간 ‘흑돼지불고기전골’로 손님들의 만족도가 높은 명실상부 중문 흑돼지 맛집이다. 중문 맛집 ‘돈가득’ 관계자는 “품질 좋은 흑돼지와 품질 좋은 참숯 사용 등 가장 기본적인 원칙을 항상 우선으로 생각한다. 깔끔하고 푸짐한 음식으로 제주도에 오신, 그리고 우리 가게에 오신 분들이 모두 좋은 추억 남기고 가실 수 있도록 계속 노력할 것이다”고 전했다. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 지하에 갇힌 사람들, 그리고 지상의 정치인들 감사원 ‘文 서면 조사 통보’에 여야 ‘정면 충돌’ 제40회 금산인삼축제 개막, '다양한 볼거리 먹거리' 대박예감 정진석·이재명 '균형발전' 공언, 충청권 메가시티 '기대감' [현장] “백제문화제가 돌아왔다” 들썩이는 부여 인기기사 주간 일간 1 [현장] “백제문화제가 돌아왔다” 들썩이는 부여 2 3년 만에 만나는 백제문화제 ‘100배 즐기기’ 3 한화이글스, 퓨처스리그 및 U-23 대표팀 연습경기 생중계 4 터크먼 라미레즈 페냐, 한화이글스 '외국인 3인방'의 운명 5 천안 원룸 여자친구 살해 조현진, 항소심서 징역 30년 6 한국타이어 금산공장 다물단, 소년소녀가장 가정에 생필품 전달 7 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 8 세종시 비알티 도로 '4시간 집중 단속'... 위험천만 현장 노출 9 서산시 동문2동 다가구주택 화재 10 대전은 소유권 이전 등기 전까지 전매제한 1 제1회 세종시 ‘어울링 바이크’ 투어... 오는 7일 접수 마감 2 세종서 시행 앞둔 '일회용 컵 보증금 반환제' 불편 우려 3 조승래 “연구비 부정 사용 과기부 연구개발사업 350건” 4 박영순 “정부까지 언론 상대 소송, 윤 정권 언론 길들이기 노골화” 5 천안시, 대규모 점포와 상생 도모 6 천안시설관리공단, 지역사회 화재 예방을 위한 ‘안전지킴이’ 7 새마을문고충남도지부, 2022 새마을문고지도자 교육 및 워크숍 실시 8 천안상록리조트, 수신면 독거노인 가구 사랑의 집수리 봉사활동 9 대덕구-나눔복지재단, 육아복합마더센터 운영 위수탁 협약 10 충남대, 2022년 세종도서 7권 선정 실시간 댓글 최신댓글 댓글많은기사 1 삼가 고인의 명복을 빕니다. 2 높아지기는 모습도 연출했다. 오타가 있네요 3 듣기 싫고 거북하면 , 안 하면 댜 !~~~ 4 자세한 내용은 모르지만 시민단체 어쩌고 하는 떨거지들과 거리를 유지하는 건 정말 잘하는 일이다 5 모듈라가 대전뿐이아니고 전국적으로다가 다허고있는디 대전만 금태둘럿네 6 애들 돈주는거는 좌파우파 안가리고 모든지로다가 대찬성이여 7 흐미 물감 아까워 8 손자라고 해서 그렇지 아들이라고 했으면 기분좋아서 그날 기분째졌을듯 9 오전부터 회의 영상 보면서 교육청직원들의 업무처리능력에 감탄 했어요 일을 그리 못하면서 월급 받는 능력자 시의원의 질의에 한 건도 명확한 답변이 없는 일 처리 능력이 정말 대단하십니다 10 모듈러교실이 있는곳으로 꼬옥 이사가서 손주들을 보내라 저런 분이 국회의원 되야 교육이 살아남을것인데. 아직 보수가 죽지 않았구려. 내 그대의 팬이 되겠소 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 대덕구의원 8명, 세비 반납도 구정질문도 안한다 5 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 6 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 7 이상래 의장, 첫 정례회-전국의장협의회 불참 '외유 논란' 8 황운하·홍성국, 李에 ‘공공기관·대통령 집무실’ 지원 요청 9 대전 UCLG 총회 ‘반전’ 115개국·2700여 명 참가 등록 10 안장헌 의원, 전형식 부지사에 "좀 배우고 오세요" 직격 하단영역 주요뉴스 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 엑스포조직위-건양대, 엑스포 성공 개최 업무협약 체결 천안시, 충남체육대회 종합우승...해단식 가져 감사원 ‘文 서면 조사 통보’에 여야 ‘정면 충돌’ 한국효문화진흥원, 10월 효의 달 명인회와 함께하는 기획 전시 대전시교육청, 김진수 부교육감 부임 목원대 컴퓨터공학과 여상수 교수, 대통령 표창 배재대 재학생 ‘2022 순천 전국 학생웹툰 공모전’ 우수상 최만묵 ㈜한남하이텍 대표, 한남대 명예이학박사 학위 수여 충남대, 2022년 세종도서 7권 선정 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
+    <t>지역관광발전 1등급에 강원도·경기도·전라남도·제주도 - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 코스닥 -4% 학살의 날…게임·바이오株 하락폭 키우며 폭락 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 코스닥 -4% 학살의 날…게임·바이오株 하락폭 키우며 폭락 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 지역관광발전 1등급에 강원도·경기도·전라남도·제주도 sns공유 더보기 지역관광발전 1등급에 강원도·경기도·전라남도·제주도 머니투데이 김고금평 기자 기자 더보기 sns공유 더보기 2018.06.28 15:15 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 문체부, ‘2017 지역관광발전지수 동향 분석’ 결과 발표…4개 광역지자체, 9개 시·군 ‘관광발전 1등급’ 지역 &lt;2017 지역관광발전지수 종합결과&gt; 지역의 관광 발전을 가늠해보는 등급 조사에서 강원도, 경기도, 전라남도, 제주도 등 4개 시도가 광역지자체 1등급 지역으로 뽑혔다. 기초지자체 중에서는 강릉시, 거제시, 경주시, 고성군(강원), 단양군, 속초시, 순천시, 울릉군, 평창군 등 9개 시･군이 관광발전 1등급 지역으로 분석됐다. 문화체육관광부는 각 지방자치단체의 관광 발전 수준을 분석하기 위해 전국 17개 시도와 152개 시･군을 대상으로 실시한 ‘2017 지역관광발전지수 동향 분석’ 결과를 발표했다. 2015년도에 처음 실시한 이 분석은 지역의 관광 발전 수준을 측정하기 위해 개발한 ‘지역관광발전지수 지표체계’를 활용해 전국 단위의 관광 발전 수준을 가늠하는 지표다. 지자체 수준과 현황을 객관적으로 진단해 지역관광 자가진단 자료로 활용하고 있다. 2년을 주기로 분석하는 지역관광발전지수는 △관광 수용력 △관광 소비력 △관광 정책역량을 3개 대분류로 구분하고, 7개 중분류, 21개 소분류 이하 34개 세부분류로 지표체계를 구성했다. 분석 결과에 따라 1등급에서 6등급으로 분류된다. 2015년도 결과에 비해 광역지자체는 17개 시도 중 9개(52.9%) 시도의 등급이 상승했고, 8개 시도는 등급 변동이 없는 것으로 나타났다. 기초지자체에서는 152개 시･군 중 70개(46.1%) 시･군의 등급이 상승했고 12개 시･군의 등급이 하락했다. 70개 시･군은 등급 변동이 없는 것으로 나타났다. 21개 소분류 지표 중 최종지수와 등급에 영향을 주는 상승요인은 관광시설, 홍보정책, 정책인력 등이고 하락요인은 관광만족도, 매체홍보, 관광교육 등인 것으로 나타났다. 문체부 관계자는 “지자체 지역관광발전지수 분석 결과는 지역 관광의 특성을 살릴 수 있는 발전 방향을 설정하고 이를 반영한 지역관광전략계획 수립과 경쟁력 강화를 위한 기초자료로 활용될 수 있을 것으로 기대한다”고 말했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 김고금평 danny@mt.co.kr 사는 대로 생각하지 않고, 생각하는 대로 산다 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 연준 "4.5% 위에서 금리 인상 중단"…경기 둔화 위험 언급 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 생활문화 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 부산 빛낸 김유정, '8100만원대' 초호화 드레스 룩…어디 거? 베트남 "'작은 아씨들' 방영 중단해달라"…바로 삭제한 넷플릭스, 왜 韓日 하늘길 열리자 '카지노'도 들썩..실적 반등 기대에 재개장↑ "주얼리만 3.2억?" 블랙핑크 지수, 아찔한 초미니 패션…어디 거 블랙핑크 제니 vs 모델, 클래식한 패션…같은 옷 다른 느낌 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 '91세' 이런 몸 가능?…기네스북 최고령 美모델 파격 화보 [영상] 맨몸의 모델에 스프레이 뿌리니…화려한 의상 등장 '반전' [내일 날씨] 연휴 마지막 비·바람에 체감온도 '뚝'…서울 최저 9도 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 생활문화 마켓 '노벨상 특수' 서점가 활기…아니 에르노 소설 인기 국립현대무용단 '작꾸 둥굴구 서뚜르게', '스텝업' 무대에 K콘텐츠 유럽 판로 확대..'2022 K-콘텐츠 엑스포' 개최 '미지의 땅' 사우디아라비아로 '도슨트 투어' 떠나볼까 [오늘 날씨] 전국 산발적 비·돌풍에 체감온도 뚝…서울 최저 9도 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 공감 엄앵란, 8년 전 박수홍에 "경제 독립해"…친형 100억 횡령 예견? 비공감 "우울증, 술에 의지" 최강희 연예계 떠난 근황…고깃집 '알바' "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 선넘은 해킹범…'뷔♥' 제니, 욕실서 찍은 셀카까지 유출 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 공감 "우울증, 술에 의지" 최강희 연예계 떠난 근황…고깃집 '알바' 비공감 '사별' 엄앵란, 5살 연하 의사와 '썸' 타나…"10년간 매주 만나" 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 공감 '16살' 정동원, 벌써 한강뷰 집서 자취…"부동산에 직접 전화" 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 정선희 "장례 치르는데 김건모 오빠가 김영철 쫓아냈다"… 왜? 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 공감 김연아, 예비 시아버지 '정치성향'도 시끌…무슨 활동했길래 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 IZE 도경수는 '진정' 믿고 볼 만해! the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도 관광객 지출 많은 곳...외국인 '연동', 내국인 '공항' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객 지출 많은 곳...외국인 '연동', 내국인 '공항' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 관광객 지출 많은 곳...외국인 '연동', 내국인 '공항' 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.06.28 17:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 관광객 신용카드 매출 빅데이터 분석결과 구좌, 서귀 애월, 안덕 핫스팟으로 부상 제주도 관광객들이 돈을 가장 많이 쓰는 곳은 외국인의 경우 제주시 연동, 내국인은 제주국제공항이 위치한 용담2동으로 나타났다.연동은 외국인면세점이, 공항은 내국인 면세점이 위치해 있는 점을 감안하면 내.외국인 모두 면세점에서 여행경비 지출이 크게 이뤄지고 있음을 알 수 있다.이같은 사실은 제주관광공사(사장 박홍배)가 제주의 신용카드 매출액 빅데이터를 이용지역별로 분석한 결과 나타났다.2012년 1월부터 2017년 12월까지 제주지역 신용카드 거래 자료의 빅데이터 분석결과, 2017년 기준 외국인 신용카드 매출액 상위 5위는 연동, 색달동, 노형동, 용담2동, 삼도2동 순으로 나타났다.연동지역은 시내면세점 2개 업체가 위치해 있고 숙박시설과 음식점, 쇼핑 상가 등이 밀집된 곳이고, 색달동은 중문 관광단지를 비롯한 숙박시설, 음식점 밀집지역이다. 노형동은 쇼핑센터와 숙박시설, 음식점, 용담2동은 제주공항 내국인 면세점과 음식점, 렌터카 업체가 집중돼 있어 매출액이 높은 것으로 분석됐다.전체적인 외국인 신용카드 매출액도 2012년부터 2016년까지 높은 성장세를 보이다가, 2017년 사드여파로 전년대비 매출액이 급감하는 추세를 보였다.내국인의 경우 용담2동, 연동, 색달동, 노형동, 성산읍 순으로 나타났다.2017년 매출액은 용담2동 5123억원, 연동 1224억원, 색달동 1183억원, 노형동 1029억원, 성산읍 895억원 순이다. 특히 용담2동이 5123억원으로 내국인 전체 신용카드 매출액의 23.9%를 차지한 것으로 나타났다. 다음으로 연동(1,224억원), 색달동(1,183억원), 노형동(1,029억원) 순이다.내국인 매출액이 높은 용담2동은 내국인 면세점과 공항이 위치한 공간적 특수성이 작용했고, 연동, 색달동, 노형동은 내국인이 선호하는 음식점, 숙박시설, 쇼핑센터 밀집지역이기 때문으로 풀이된다. 내국인 매출액은 면세점과 렌터카 업체가 집중돼 있는 용담2동을 제외하고도 지역별로 고른 분포를 보였다.반면 외국인 매출액은 면세점 및 숙박시설이 위치한 연동과 색달동 두 개 지역에 집중되어 있는 것으로 나타났다.내.외국인 매출액 중 절대 다수를 차지하는 면세점 매출액을 제외할 경우, 내·외국인 모두 연동, 색달동, 용담2동, 노형동 등 관광 편의시설 집중지역 매출액이 높은 것으로 나타났다. 한편 내.외국인 매출액을 합한 총액기준으로 2012년과 2017년의 순위를 비교할 때, 순위가 가장 많이 상승한 지역은 구좌읍(20위→13위), 서귀동(10위→5위), 애월읍(11위→8위), 안덕면(12위→9위)순인 것으로 나타났다. 이러한 추세는 전통적인 관광 편의시설이 집중된 도심 중심부 지역에서, 인근 읍면지역으로 관광객 소비가 확대되고 있음을 보여준다. 읍면지역은 외국인 매출이 차지하는 비중이 적어 사드여파에 크게 영향을 받지 않고, 내국인 중심의 음식점업, 소매업, 숙박업, 예술·스포츠·여가의 고른 매출 증가로 인해, 전년대비 2017년 매출액이 성장한 것으로 나타났다. 매출액 증가 주요지역은 조천읍, 애월읍, 한립읍, 구좌읍(이상 제주시), 성산읍, 표선면, 안덕면, 대정읍(이상 서귀포시) 등 읍.면지역으로 점차 확산되는 추세를 보였다.읍.면지역의 경우 음식점업과 소매업에서 매출증가가 두드러졌다. 이는 경관이 우수한 읍면지역을 중심으로 카페, 이색관광콘텐츠가 지속적으로 생산되고 있으며, SNS 등을 통해 급속히 확산되면서 재생산되고 있기 때문이라고 풀이된다.내국인 신용카드 매출액은 제주전역에서 폭넓게 발생하는데, 식도락 여행을 위한 음식점업을 중심으로 상권이 형성되고 소매업이 함께 발전하는 추세를 보이는 것이 특징이다.제주관광공사는 이번 분석을 위해 사용된 자료는 S카드사 매출데이터로, 대상기간은 2012년 1월부터 2017년 12월까지 제주지역 신용카드 거래 자료라고 설명했다.제주지역 신용카드 매출액은 S카드사 매출데이터를 기본으로 해, 한국은행 및 여신협회 공공자료를 활용해 지역·카드종류별 보정계수를 적용, 전체 시장기준 신용카드(체크카드 포함) 사용액을 산출했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>“제주도 관광정책 실명제로 접근해야”…제주관광학회 세미나 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS “제주도 관광정책 실명제로 접근해야”…제주관광학회 세미나 입력 : 2018-06-25 03:00:00 수정 : 2018-06-24 13:33:07 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 민선 7기 제주도 관광정책은 책임행정을 강조하는 정책실명제 방식으로 접근해야 한다는 의견이 나왔다. 24일 제주관광학회(회장 신왕근)에 따르면 지난 22일 제주시 아스타호텔에서 ‘민선 7기 출범에 따른 제주 관광정책 방향’을 주제로 연 춘계 학술세미나에서 제주대 장성수 교수(관광개발학과)가 기조강연을 통해 이 같이 제언했다. 사단법인 제주관광학회가 지난 22일 제주시 아스타호텔에서 ‘민선 7기 출범에 따른 제주 관광정책방향’을 주제로 춘계 학술세미나를 열고 있다. 제주관광학회 제공 장 교수는 “제주도가 관광산업의 질적 고도화를 추구하고 있지만, 아직까지 총론적 과제 설정에 머문 채 기존 정책범위를 벗어나지 못하고 있다”며 공론화 과정을 거쳐 산업 부문간 조화로운 양적관리 목표를 설정할 것을 주문했다. 장 교수는 “관련 정책들 간의 중복지원을 방지하기 위한 사업 모니터링 강화와 사업성과 분리 추출이 요구된다”고 진단했다. 장 교수는 “이처럼 관광정책 추진과정상의 주민소통 점검시스템을 강화하기 위해서는 사업 기획·집행·평가 담당자 간 명확한 역할분담과 원활한 환류체계 조성을 통한 정책실명제 접근방식이 매우 중요하다”고 강조했다. 또 “우수한 전문인력을 육성하기 위해 일자리 질 개선에 적극 개입하는 시책을 확대해 나가야 한다”며 “최저임금 인상과 주 52시간 근로제 시행의 충격파를 흡수하며 도내 기업의 경쟁력을 강화하는 좋은 일자리의 발굴·지원이 시급하다”고 덧붙였다. 장 교수는 또, 관광 수용력 준수, 주민 소득 극대화, 고품질 상품 개발, 관광 교통 혁신, 투자 검증 실현 등을 정책 지향점으로 제시했다. 이어 홍성화 제주대 교수(관광경영학과)가 ‘날씨변화로 인한 관광지 입장객 수와 모바일 관광정보 검색량 간의 관계 분석’, 김기현 사단법인 제주문화관광연구소 연구원이 ‘제주오라관광단지 조성사업 발전방안’, 김문찬 제주관광대 겸임교수가 ‘제주 방문 중국인 개별 관광객의 라이프스타일에 따른 관광지 선택속성’, 조정인 제주대 강사가 ‘관광목적지 PR효과 촉진을 위한 커뮤니케이션 전략’을 주제로 발표했다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20180624002211 0101070100000 0 2018-06-25 3:10:39 2018-06-24 13:33:7 0 “제주도 관광정책 실명제로 접근해야”…제주관광학회 세미나 Cube 임성준 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 1833억원 최대 1년 상환유예 결정 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광진흥기금 1833억원 최대 1년 상환유예 결정 등록 2018.06.18 13:28:33 작게 크게 제주도청 전경(뉴시스 DB)【제주=뉴시스】강정만 기자 = 제주특별자치도는 제주관광진흥기금 융자금 상환유예 지원에 총 274건 1833억원을 최종 확정했다고 18일 밝혔다. 유예 기간은 사안에 따라 최대 1년간이다. 도는 작년 ‘사드(THAAD·고고도미사일방어체계)사태’ 이후 중국인 관광객이 급감하면서 지속된 관광시장 위축으로 자금조달에 어려움을 겪고 있는 지역 관광사업체를 위해 융자금 상환유예 지원을 확정했다. 이번 융자금 상환유예 지원은 지난해 매출액이 2014년부터 2016년까지의 평균 매출액보다 감소한 업체를 대상으로 업체의 자금사정을 감안해 매출액이 20%범위내 증가한 업체까지 포함시켜 제한적으로 지원 결정했다. 최종 유예지원은 관광호텔업을 비롯한 관광숙박업이 158건 1499억원을 차지해 지원규모의 81.7%비율로 가장 많았다. 다음은 휴양펜션업, 관광식당업 등을 비롯 관광편의시설업에 23건 90억원, 관광유람선업, 공연장업 등 관광객이용시설업에 16건 49억원이다. 여행업은 11건에 11억원, 유원시설업은 1건에 1억원, 기타 일반숙박업 등에 65건 183억원으로 나타났다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>7월 제주도 여행 10선...놓치면 후회할 관광명소는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 7월 제주도 여행 10선...놓치면 후회할 관광명소는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 7월 제주도 여행 10선...놓치면 후회할 관광명소는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.06.20 10:39 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사(사장 박홍배)는 20일 ‘핫 썸머 핫한 섬과 썸타자’라는 테마를 주제로 관광지, 자연, 체험, 축제, 음식 등 5가지 분류에 대해서 놓치지 말아야 할 제주 관광 추천 10선을 발표했다.◆ 바다와 사람, 잔잔한 어울림이 반짝이는 곳: 하도리 마을 천천히, 자세히 봐야 진가를 드러내는 사람이 있다. 첫 인상이 강렬한 사람보다 오래 도록 기억되는 그런 사람. 하도리 마을이 그렇다. 은은한 아름다움을 풍기는 하도리는 해안가에선 해녀들의 숨비소리가, 지붕 낮은 집이 옹기종기 모여 있는 마을에선 명랑한 새소리가 배경음악처럼 들리는 곳이다. 하도리는 두 눈의 시야를 넓히고 둘러봐야 한다. 그래야만 곳곳에 숨은 보석 같은 스팟을 발견할 수 있다. 7월이면 새하얀 문주란이 만발하는 토끼섬은 해안에서 50m 정도 떨어져 있어, 썰물 때 걸어서 섬으로 들어갈 수 있고, 왜구를 막기 위해 쌓은 별방진은 그 목적과 달리 마을을 감싸 안은 모습이 더없이 푸근하게 느껴진다. 하도 해안도로에는 작은 포구를 만나는 쏠쏠한 재미가 숨겨져 있고, 너른 하도해변에서는 물놀이하기 좋다. 하도어촌체험마을이 운영하는 해녀물질체험 등 11개의 프로그램을 통해 해녀들의 삶을 직접 체험해보는 것도 특별한 경험이 된다. 자연과 사람의 어울림이 이토록 빛나는 하도리 마을로 떠나보는 건 어떨까.◆ 하도리 마을 몸 뉘일 만한 눈부신 바다: 판포포구, 신창풍차해안도로 여름만큼 바다의 품으로 뛰어들기 좋은 계절이 없지만, 힘들고 외로울 때 사람들은 깊고 너른 바다를 찾는다. 아무런 대가 없이 양식과, 쉼터를 내어주는 바다는 우리 곁에 언제나, 그대로 남아있다는 걸 잘 알고 있기에. 제주 해안가에는 작은 포구들이 곳곳에 남아있다. 판포포구도 작은 어촌의 포구였지만 방파제 안쪽 바다가 잔잔하면서 수심이 낮고, 바닷물의 빛깔이 아름다워 스노클링 명소로 유명해졌다. 안쪽바다에서 좀 더 나가면 수심이 깊어져, 어른들이 수영을 즐기기에도 알맞다. 스노클링 장비만 준비해가면 맑고 투명한 제주의 바다를 자유로이 유영할 수 있는데, 주변 어촌계나 카페에서 장비를 빌릴 수도 있으니 참고하길. 한바탕 물놀이를 끝내고, 차로 10분 거리에 위치한 신창풍차해안도로로 향해보자. 바다 위에 줄지어 서있는 하얀 풍차와 핑크빛 석양으로 물들어가는 하늘과 바다는 제주가 만들어낸 환상의 조화. 올 여름, 나를 보듬어주는 눈부신 제주 바다에 내 몸을 맘껏 뉘어보는 건 어떨지.◆ 너울대는 파도 위에서 제주를 만끽하라: 제주의 해양 엑티비티 제주 여름바다는 쉴 새가 없다. 쏟아지는 햇볕아래 넘실대는 푸른 파도와 황금빛 모래해변은 사람들의 열기가 더해져 후끈 달아오른다. 맨 몸으로 노는 것도 좋지만 색다른 해양 엑티비티로 제주의 여름을 더 신나게 즐겨보는 건 어떨까. 서핑이 유행하면서 제주는 서핑의 성지로 부상 중이다. 서퍼들의 사랑을 받고 있는 곳은 중문색달해변이 가장 유명하고, 곽지해변, 이호테우해변도 서핑하기 좋은 해변으로 꼽힌다. 서핑 강습과 장비를 빌려주는 대여점들이 있어, 누구나 서핑을 배우고 즐겨볼 수 있다. 보드 하나에 내 몸을 맡긴 채 파도 위를 걷는 짜릿한 기분은 직접 해보지 않으면 느껴볼 수 없다. 서핑 외에도 국제리더스클럽에서는 바다 위를 산책하는 듯 한 패들보드와 누구나 부담 없이 제주 바다 속을 경험할 수 있는 반잠수정을 운영하고, 해안절경을 감상할 수 있는 퍼시픽랜드의 요트투어와 제주해양레저체험파크의 수상지질트레일도 관광객의 호기심을 불러일으키기에 충분하다. 이번 여름에는 제주를 유니크하게 만끽해보자.◆ '2018 Break Time-바다로 가자': 제주 해수욕장 개장 제주의 바다가 두 팔 벌려 인파를 환영하는 계절, 여름이다. 그간의 휴식이 길었는지 조금 일찍 손님을 맞이하는 해수욕장이 있다. 6월 23일 문을 여는 곽지과물, 금능, 이호테우, 함덕, 협재가 그곳이다. 김녕, 삼양, 신양섭지, 중문색달, 표선, 화순금모래 해수욕장은 7월 1일 개장한다. 이제 반짝이는 모래사장과 맑은 바닷물에 몸을 맡길 일만 남았다. 7월 14~15일, 21~22일 이호테우 해수욕장에서 열리는 이호야간콘서트와 27~29일 열리는 이호테우 축제도 놓칠 수 없다. 제주의 전통 뗏목인 테우 경기와 각종 공연, 고기잡이 체험 등이 준비되어 있다. 7월 13~14일 함덕해수욕장에서 열리는 스테핑스톤페스티벌은 어느덧 15회를 맞이한 제주의 대표 록페스티벌. 파도의 철썩임은 축제에 색다른 리듬을 부여할 것이다. 바다의 부름을 들었는가. 그럼 이제 떠나자. 따라 부르고 싶은 이름을 가진 제주의 해변으로.◆ 더위를 삼킨 비밀스런 계곡으로: 돈내코 계곡, 정모시 쉼터 숨 막히는 더위, 온 몸을 타고 흐르는 시원한 물놀이가 간절하다. 해수욕장 말고, 제주에서 신선한 물놀이를 즐기고 싶다면? 한라산의 정기를 머금고 내려오는 얼음같이 차갑고 맑은 물이 흐르는 계곡으로 가자. 서귀포에 위치한 돈내코 계곡은 청색 물감을 풀어놓은 듯 오묘한 물줄기와 양편의 난대 상록수가 더해져 수려한 경관을 뽐낸다. 울창한 나무는 햇볕을 막아줘 파라솔이 필요 없을 정도. 7월 14일에는 에코파티가 예정되어 있으니 하루빨리 신청해 돈내코를 깊숙이 즐겨보는 기회를 잡아보자. 돈내코에서 해안 쪽으로 내려오면 정모시쉼터가 햇빛에 지친 사람들을 반긴다. 규모는 작지만 곳곳에 정자와 벤치, 그늘이 많아 물소리를 들으며 한적하게 쉬기 좋아서 관광객보다는 지역주민들이 많이 찾는 계곡이다. 잠시 더위를 잊고 싶을 때, 숲속 요정을 만날 것만 같은 비밀스런 계곡도 좋은 선택일 것이다.◆ 평화의 섬, 제주에 빛의 바람이 분다: JEJU LIGHT ART FESTA(제주라프) 초록의 녹차밭에 어둠이 내려앉는다. 해가 모습을 감추자 하나둘 켜진 인공조명이 주위를 밝힌다. 온 세상이 밝을 때는 빛의 진가를 알 수 없는 법. 태양이라는 거대한 광원이 사라졌을 때 비로소 빛의 축제가 시작된다. 용암이 흐르면서 만들어진 빌레와 곶자왈, 그리고 동굴 위에 만들어진 갤러리, ‘제주 라이트 아트 페스타’는 빛을 매개로 한 설치·조형 작품들을 선보이는 축제다. 영국의 조명예술 거장 브루스 먼로가 제주의 화산 지형에서 영감을 받아 만든 작품이 대표 전시. 이밖에 젠 르윈, 탐 프루인, 제이슨 크루그먼, 이병찬 등 세계 각지에서 온 아티스트의 라이트 아트가 6만 평의 너른 공간을 채운다. 제주라프는 7월 27일부터 10월 24일까지 다채로운 빛을 밝힐 예정이다. 제주의 밤은 오래도록 눈부실지어다.◆ 온몸으로 느끼는 제주의 와일드한 굴곡: 제주 제라진오프로드 제주의 야생을 경험하기 위해서는 길을 벗어나야 한다. 쭉 뻗은 도로에서의 편안한 드라이브를 잠시 미뤄둘 준비가 되었다면 사륜구동 자동차에 올라탈 차례. 제라진 캠프의 제주오프로드 코스에서 원시 자연을 달리며 날것의 제주를 체험해보자. 말이 다니던 길을 따라 설계한 6.5km의 코스는 험준한 오르막·내리막길은 물론 진흙탕길, 갈대 분지, 곶자왈, 선새미오름 등을 지난다. 문명의 손길이 닿지 않은 제주의 지형을 온몸으로 느낄 수 있는 시간이다. 오프로드 전문가가 동행하는 약 1시간의 체험 코스로, 놀이기구를 타는 듯 스릴 넘치는 구간부터 연못 주위를 산책하는 구간까지. 심장 박동 수를 높이는 짜릿한 체험 후에는 초원을 유유히 누비는 말과 노루도 만나볼 수 있다. 산과 들판은 늘 그곳에 존재하며 인간을 위한 자리를 내어준다. 오프로드용 차량의 힘을 빌려 굴곡진 제주의 한가운데로 다가가 보자.◆ 한여름밤, 시원한 한 잔의 힐링: 제주맥주 양조장, 짠페스티벌 더운 여름, 하루 일과를 마친 후 간절히 생각나는 건 얼음장 같은 맥주 한 캔이 아닐까. 제주의 물과 바람을 담은 제주맥주는 전국에서 돌풍을 일으키고 있다. 깨끗하면서도 진한 보리맛과 입안에 맴도는 감귤향이 제주맥주만의 독특한 매력. 소금기 머금은 밤바람을 맞으며 제주를 닮은 맥주를 마시노라면 마음까지 정화된다. 맥주러버 제주맥주 양조장투어를 놓칠 수 없다. 제주에 양조장을 설립한 제주맥주 브랜드의 탄생과 양조과정을 한눈에 볼 수 있고, 양조장 위층에 마련된 펍에서 갓 뽑아낸, 신선한 제주맥주를 즐길 수 있다. 투어는 사전예약제로 운영시간은 13~19시. 월,화,수는 휴무다. 또한 7월 20~22일에는 플레이스캠프 제주에서 작년 처음 개최한 제주 최초의 맥주 축제, ‘짠페스티벌’이 열린다. 국내 수제맥주를 포함한 전 세계 맥주 40여종을 맛볼 수 있으며 버스킹 공연, 디제잉 파티, 플리마켓 등 다양한 즐길거리가 마련된다. 청정 제주공기 한 숨에 시원한 맥주 한 모금. 힐링이 따로 없다.◆ 뜨거운 태양 아래 썬플라워 바다로: 김경숙 해바라기, 렛츠런팜 해바라기는 작열하는 7월의 태양을 누구보다 열렬히 쫓아가며 샛노란 얼굴을 피워낸다. 겨우내 움츠렸던 몸을 일으켜 열정에 가득 찬 햇빛을 맞이하는 사람들의 상기된 표정과 해바라기가 오버랩되어 여름을 대표하는 꽃으로 사랑받는 걸지도. 푸른 제주바다를 충분히 즐겼다면, 이번엔 썬플라워 바다에서 인생사진을 건져보자. 2012년에 문을 연 김경숙 해바라기 농장은 제주 최대 규모인 약 1만 평에 75만 송이가 만발한다. SNS에선 여름철 포토스팟으로 입소문을 타고 알려지는 중. 국산 해바라기씨로 만든 오일 초코볼 등 먹을거리도 판매한다. 렛츠런팜 역시 양귀비꽃에서 노란 해바라기로 옷을 갈아입고 관광객을 맞이할 준비를 마쳤다. 여름 제주에 있는 동안 연인, 가족과 함께 해바라기 속에 파묻혀 할 수 있는 한 가장 따뜻한 시선이 담긴 사진 한 장 남겨보길.◆ 열은 쿨하게 식히고, 추억은 데운다: 보리개역, 개역빙수 꿈같은 제주에서 핫한 여름을 보내고, 다시 일상으로 돌아가야 할 시간. 한껏 올라간 몸의 온도를 쿨하게 식히고, 여름철 몸까지 보호하는 ‘보리개역’ 디저트 한 입이면 피로가 싹 사라진다. 제주에서는 도정하지 않은 햇보리를 빻은 가루를 보리개역이라 부르는데, ‘개역’은 미숫가루를 뜻하는 제주방언이다. 예부터 제주인들은 보리개역을 죽처럼 되직하게 만들어 떠먹거나 물에 타서 마셔왔다. 보리는 열을 내리는 효능이 있어 여름에 먹기 딱 좋다. 구제주시에 자리한 ‘순아커피’에서는 여름부터 초가을 동안 제주보리로 만든 ‘보리개역’ 음료를 맛볼 수 있고, 서귀포 남원의 ‘느영나영초가집’은 개역을 넣어 갈은 우유얼음으로 만든 개역빙수가 시그니처 메뉴로 사랑받고 있다. 어른들은 옛 추억에 잠기고, 아이들도 부담 없이 즐길 수 있는 있는 고소하고 달달한 보리개역 디저트. 올 여름 먹킷리스트에 올려보는 것을 추천한다.제주관광공사의 월 추천 관광 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, '관광+아카데미' 교육과정 수강생 모집 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, '관광+아카데미' 교육과정 수강생 모집 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, '관광+아카데미' 교육과정 수강생 모집 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.06.27 16:03 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주평생교육장학진흥원(원장 이안열)은 오는 7월10일부터 9월5일까지 '제주관광+아카데미 기본과정'을 운영, 오는 오는 7월 4일까지 수강생을 모집한다고 27일 밝혔다. 이번 교육과정은 제주지역혁신프로젝트의 일환으로 6차 산업, OTA(Online Travel Agency, 온라인여행사), 스마트 에듀 관광 등 변화하는 관광산업 환경변화에 대응할 수 있는 관광종사원 양성과 관광산업에 대한 도민의 긍정적 인식제고를 통한 제주관광의 질적 성장을 위해 마련됐다. 교육은 관광산업에 대한 이해, 제주의 이해, 4차 산업혁명시대 관광의 트랜드와 발전방향 등의 이론교육 및 곶자왈 트래킹, 해녀체험, 6차 산업현장 등 제주관광 컨텐츠 체험, 제주 관광산업에 대한 가치를 찾는 워크숍 등 총 80시간으로 구성됐다. 교육과정을 80% 이상 참여할 경우 수료증과 국내 선진사례 답사 사업에 참가할 자격을 획득할 수 있다. 모집 대상은 관광산업에 관심이 있는 제주도민 및 취업준비생이며, 모집 인원은 40여명이다. 참가 신청은 오는 7월 4일까지 제주평생교육장학진훙원 홈페이지에서 신청서를 내려받아 이메일(mieso77@gmail.com) 또는 팩스(064-726-9848)로 신청하면 된다.한편, 이번 교육은 향후 취·창업 과정 운영을 통한 취업지원 및 관광산업 종사원을 대상으로 하는 직무교육 등으로 확대할 예정이다. 문의전화= 064-726-9873 &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 현장체험 행사 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 등반동호회, 현장체험 행사 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 등반동호회, 현장체험 행사 운영 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.06.24 13:30 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 등반동호회(회장 박지혜)는 지난 23일 현장체험 행사를 개최했다.이 날 행사에 참가한 회원 50여명은 백약이오름과 수국축제가 한창인 제주에코랜드를 방문해 숲 해설 및 숲 치유를 받으면서 상호 네트워크를 구축하는 시간을 가졌다.한편 제주도 관광협회 등반동호회는 제주관광 상품개발을 촉진하기 위해 매월 셋째주 토요일마다 제주도내 자연관광 및 일반 관광지와 연계한 현장체험 행사를 운영하고 있다.이 행사에는 제주도관광협회 회원사 임직원 및 종사자 등 회원사 가족이라면 누구나 참가할 수 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '최우수 부스 운영상' 수상 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 '최우수 부스 운영상' 수상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도관광협회 '최우수 부스 운영상' 수상 기자명 한지형 기자 입력 2018.06.19 18:40 수정 2018.06.19 19:24 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주도관광협회(회장 김영진)가 한국국제관광전에서 제주관광홍보관을 운영해 '최우수 부스 운영상'을 수상했다.제주도와 제주도관광협회는 14~17일 서울 코엑스에서 열린 제33회 한국국제관광전에 참가해 세계자연유산 등 제주의 글로벌 브랜드 및 골프 등 레저·스포츠, 4·3 70주년 2018 제주 방문의 해 등을 적극 홍보했다.또 제주해변을 배경으로 한 포토존 운영 및 사회관계망서비스(SNS) 이벤트 등을 진행하면서 여름철 관광객 유치에도 노력하면서 이번 상을 받았다.도관광협회 관계자는 "앞으로 관광객 소비 트렌드를 반영한 콘텐츠 개발 및 제주관광의 질적 성장을 도모하기 위한 홍보마케팅 활동에 주력하겠다"고 말했다. 한지형 기자 my-yoshi@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 터키 관광수도 안탈리아서 공동 생태사진전 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 터키 관광수도 안탈리아서 공동 생태사진전 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, 터키 관광수도 안탈리아서 공동 생태사진전 개최 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.06.20 15:03 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 터키의 관광수도라 일컫는 지중해의 도시 안탈리아에서 제주의 생태환경을 홍보하는 사진전이 열렸다. 제주특별자치도는 최근 제주올레 파트너 기관인 '터키 문화의 길 협회(Culture Routes Society Turkey)'와 공동으로 제주-터키 생태사진전을 개최했다고 20일 밝혔다. 이번 사진전에서 제주는 제주화산섬, 해녀, 제주올레 등 20점의 사진을 전시하고, 터키는 제주를 방문했던 협회 관계자가 찍은 제주 자연 사진과 터키 자연 사진 등 20점을 전시했다. 사진전에는 슐레이만 톱추 안탈리아 뎀레구청장, 무랏 우즈 뎀레군수, 에루투우룰 규나이 전 터키 관광문화장관을 비롯해 현지 시민 200여명이 참석해 제주의 자연환경에 대한 큰 관심을 보였다. 터키 문화의 길 협회 케이트 클로우 대표는 사진전 개회사를 통해 "최초로 아시아 국가지역의 제주올레와 우정의 길 네트워크를 통해 이뤄진 공동 사진전은 서로의 자연.문화.역사를 접할 수 있는 좋은 기회이며, 지속적으로 이뤄지길 바란다"고 말했다. 제주도 관계자는 "이번 터키 전시전에 이어, 9월부터 10월까지 프랑스, 모나코, 스페인, 이탈리아 등 지중해 4개 도시에서 제주 생태사진전을 확대 개최해 제주의 자연, 문화 등 생태관광자원을 유럽의 도시에 홍보할 계획"이라고 밝혔다.한편, 이번 사진전은 지난 3월 제주형 글로벌 생태관광 허브 조성을 위한 제주도와 (사)제주올레의 업무협약에 따라 ICC제주에서 대행하고 있는 홍보 마케팅 협력사업의 일환으로 마련됐다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회장배 아마추어 친선골프대회 '성황' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회장배 아마추어 친선골프대회 '성황' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회장배 아마추어 친선골프대회 '성황' 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.06.21 09:47 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 20일과 21일 제주도내 골프장 3곳에서 골프장 경쟁력 강화를 유도하기 위해 450여명이 참가하는 '2018 제주특별자치도관광협회장배 아마추어 친선골프대회'를 개최했다.올해로 8년째를 맞는 이번 골프대회는 제주관광협회와 회원사인 골프장들이 중심이 돼 골프상품 개발을 통한 관광객 유치를 위해 마련된 것으로, 수도권 및 영호남지역에 거점을 둔 제주관광 홍보사무소에서 지역별 네트워크를 통해 참가자 유치해 열렸다. 특히, 관광협회 회원사들은 대회의 성공적 개최를 위해 호텔숙박권, 렌터카이용권, 식사 이용권, 토산품, 골프이용권 등 다양하고 푸짐한 경품들을 제공하는 등 많은 노력을 기울였다. 김영진 제주도관광협회장은 "앞으로도 제주도내 관광업계와 함께 다양한 여행상품을 개발하고 적극적인 비즈니스 마케팅을 통해 제주도내 관광업계 수익 증대에 기여할 수 있는 활동들을 지속해 나갈 것"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N3 이전 다음 "여름철 피서는 무조건 제주도!" 일본 관광객 사로잡기 돌입 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 사회 "여름철 피서는 무조건 제주도!" 일본 관광객 사로잡기 돌입 김은애 기자 승인 2018.06.12 16:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주관광공사, '한국관광 페스티벌 2018' 참가 "여름 휴양지 이미지 홍보로 일본인 관광객 사로잡기" '한국관광 페스티벌 2018' 현장. [미디어제주 김은애 기자] 제주특별자치도와 제주관광공사(사장 박홍배)는 12일(화)과 13일(수) 일본 도쿄돔시티 프리즘홀에서 개최되는 '한국관광 페스티벌 2018'에 참가해 일반 소비자와 업계 대상 제주관광 홍보를 진행한다. 12일(화)에는 일본 여행업계 관계자 50여명을 대상으로 B2B상담회를 실시하여, 세계자연유산 투어 상품 판매를 고집하는 일본 여행업계에 리조트와 여름철 해수욕장 등이 포함된 새로운 휴양 상품을 제안한다. 페스티벌 기간에 개최되는 일반소비자 행사에서는 여름방학 시즌에 맞춰 FIT 수요 유치를 위한 홍보를 진행한다. 특히 여름철 가족단위 수요 유치를 위해 유명 여름철 관광지 과녁 맞추기 이벤트 등을 개최하고, 가깝고 친근한 리조트로서의 이미지 구축에 나선다. 그 밖에도 13일(수) 도쿄 빅사이트에서 개최되는 'Tokyo Cafe Show 2018'에도 참가하여, 일본의 카페전문 미디어를 대상으로 해변카페, 숲속카페 등 제주의 카페 콘텐츠를 소개할 예정이다. 또한, 제주시와 우호협력도시인 도쿄 아라카와구 국제교류협회를 방문해 상호교류 행사 개최 등 교류 활성화를 위해 노력할 방침이다. 제주관광공사 관계자는 “여름철 휴양지라는 새로운 이미지 전달을 통해 최근 일본인관광객 증가세에 박차를 가하고, 인기 관광지인 하와이와 오키나와만큼 많은 관광객을 끌어들일 수 있도록 하겠다"며, "앞으로도 홍보사무소가 설치되어있는 도쿄, 오사카, 후쿠오카 등 대도시를 중심으로 TV CM과 일반소비자 대상 설명회 등을 통해 제주의 이미지를 높여가도록 하겠다"고 밝혔다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김은애 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>전기차 타고 제주도 여행...'전기차 자가운전' 관광상품 호응 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 전기차 타고 제주도 여행...'전기차 자가운전' 관광상품 호응 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 전기차 타고 제주도 여행...'전기차 자가운전' 관광상품 호응 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.06.11 13:51 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × '카본 프리 아일랜드 2030'을 활용한 첫 관광상품인 '싱가포르 전기자동차 자가운전 상품' 제주 일정이 성공리에 마무리됐다.제주특별자치도와 제주관광공사(사장 박홍배)는 한국관광공사, 싱가포르 자동차협회(Automobile Association of Singapore), 아시아나항공, 현지 언론사(Lianhe Wanbao) 등과 함께 개발해 지난 7일부터 닷새간 진행된 '전기자동차 자가운전(Fly-Drive to Jeju Island)' 상품의 제주 일정이 관광객들의 호응 속에 마무리됐다고 11일 밝혔다. 이번 상품은 80여 명의 관광객이 전기자동차 35대를 이용해 제주 곳곳을 찾는 일정으로 진행됐다. 이들은 제주시 민속오일시장, 우도, 성산일출봉, 수월봉 등 주요 관광지를 방문하는 한편, 레일바이크와 잠수함, 승마 등 다양한 체험프로그램도 경험했다. 참가자들은 전기자동차를 활용한 자가운전 상품에 높은 만족감을 나타냈다. 참가자 탄 콕 타이(Tan Kok Thye)씨는 "전기차에 대한 관심이 많아 이번 상품을 구매했는데, 제주에 전기차가 많아 놀랐고 작동방법이나 효율성, 드라이브 코스 등 함께 온 가족 모두 만족했다"며 만족도를 드러냈다. 이번 상품에 동행한 현지 언론사 완바오(Wanbao)의 고 신 텍(Goh Sin Teck) 편집장도 "아직 호텔이나 관광지에 충전시설이 부족하지만, 전기차를 이용하는데 큰 불편을 느끼지 못했다"며 "전기차가 없는 싱가포르 관광객들에게 매력적인 콘텐츠가 될 것"이라고 밝혔다. 제주관광공사와 상품을 공동으로 개발한 싱가포르 자동차협회의 버나드 테이(Bernard Tay) 회장은 "상품 참가자들의 만족도가 매우 높다”며 “추가적인 협의를 통해 전기차 자가운전 상품을 지속적으로 만들겠다"고 밝혔다. 한편, 제주관광공사는 자가운전이 가능한 싱가포르와 말레이시아 등을 대상으로 전기차 콘텐츠를 지속적으로 홍보하는 한편, 에코랠리 등을 활용한 특화상품도 개발해나갈 계획이다. 이를 위해 제주도내 렌터카 업계 및 관련 기관과의 협업을 통해 외국인들이 보다 쉽게 전기차를 이용할 수 있도록 충전기 외국어 지원, 홍보물 제작에도 만전을 기해나가기로 했다. 제주관광공사 관계자는 "제주의 청정 이미지 홍보 효과를 극대화하기 위해 앞으로 카본 프리 아일랜드 2030 정책 중 하나인 전기차를 활용한 마케팅을 강화해 나가겠다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>여름철 떠나는 제주도 중문관광단지 흑돼지 맛집 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 여름철 떠나는 제주도 중문관광단지 흑돼지 맛집 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 여름철 떠나는 제주도 중문관광단지 흑돼지 맛집 유지형 승인 2018.06.15 16:39 수정 2018.06.15 16:39 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × ▲ 사진 제공 : 돈이랑 국내외 여행객들이 가장 많이 찾는 여름철 휴가지는 제주도, 최근 제주도 여행은 식도락 중심의 맛집 여행이 중심을 이루고 있다. 특히 유명 관광지도 돌아보고 제주도에서만 맛볼 수 있는 맛집 여행이 대세로 떠오르고 있다. 제주도 하면 가장 먼저 떠오른 곳은 중문관광단지로 수려한 자연경관과 함께 제주도 흑돼지 연탄구이 맛집이 즐비하다. 중문관광단지 인근의 흑돼지 연탄구이 전문점인 돈이랑 관계자는 “제주도 여행 트랜드는 유명 관광지 탐방과 함께 맛집을 찾아 떠나는 여행으로 변화하고 있다.”며 “특히 제주도에서만 맛볼 수 있는 원조의 맛을 찾는 여행객들이 부쩍 늘고 있다”고 이야기 하고 있다. 흑돼지 전문점인 돈이랑이 이야기하는 맛집 레시피의 시작은 흑돼지 청정사육단계부터 시작한다. 현재 돈이랑은 흑돼지 청정사육단계 HACCP 인증을 획득하고 무항상제 명품 흑돼지로 국내 유명백화점에 납품을 하고 있다.  돈이랑이 말하는 흑돼지 청정사육은 우선 지한 180미터에서 퍼올린 미네랄의 보고 화산암반수로 흑돼지를 사육하고 있으며, 이는 곧 위생적이고 미네랄이 풍부한 흑돼지 고기를 맛볼 수 있다는 것이다. 또한 돈이랑이 말하는 흑돼지 맛집 레시피의 두번째는 은은한 연탄불에서 직접구운 흑돼지 요리로 두툼한 흑돼지가 연탄불 구이에 바삭함과 부드러운 맛을 함께 느낄 수 있다는 것이다. 한편 돈이랑은 연탄불 구이에서 최상의 맛을 위한 고기를 두께를 정형화 하여 제공하고 있는데, 바삭함과 부드러운 맛이 특징이다. 현재 돈이랑은 여름철 관광객들을 맞이 하기 위해 레스토랑의 코스요리처럼 격식을 제공함은 물론 있는 저녁식사의 추억을 위해서 픽업서비스와 밤 12시까지 심야영업을 하고 있다.  /온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 나만의 여행패키지 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 나만의 여행패키지 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 나만의 여행패키지 기자명 장준영 기자 승인 2018.06.11 16:52 댓글 0 조회수 : 1914 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바쁜 일상 속에서 벗어나 모처럼 떠나는 여행은 기분전환과 함께 지친 심신을 달래주는 힐링이 가능하다. 주말을 이용해 또는 휴일을 이용한 여행을 준비 중이라면 제주도를 권한다. 지금의 제주도는 그렇게 덥지도 않고 여름 휴가철 때만큼 붐비지도 않아 제주도를 편히 둘러보며 충분히 즐길 수 있는 시기다. 제주도의 구석구석을 여유롭게 둘러보면 좋겠지만 길지 않은 일정으로 제주도 여행 코스를 계획해야 한다면 서귀포시에 위치한 ‘중문관광단지’가 제격이다. 중문은 ‘천제연폭포’와 ‘주상절리대’, ‘색달 해변’과 ‘쉬리 언덕’, ‘별내린전망대’ 등 제주도 특유의 자연경관과 함께 다양한 관광요소들을 갖추고 있어 많은 관광객들이 찾는다. 먼저는 다수의 고급호텔과 그 외 숙박시설이 다양하게 있어 편리하게 숙박시설을 선택할 수 있고 아이들을 동반한 여행이라면 돌고래쇼를 볼 수 있는 ‘퍼시픽랜드’와 1700여 가지의 나무와 식물 견학이 가능한 ‘여미지식물원’, 각종 테마의 박물관 체험까지 다채롭게 제주도를 즐길 수 있다. 보고 듣고 느꼈다면 다음은 제주도를 맛볼 시간이다. 제주도에 왔으니 흑돼지 식사가 빠질 수 없는데, 중문동 2025-1에 위치한 ‘돈가득’은 독특하게 ‘복분자 흑돼지’로 입소문이 자자한 제주도 맛집이다. ‘돈가득’은 제주산 두툼한 흑돼지를 품질 좋은 참숯에 굽는데 굽기 직전 복분자를 뿌려 잡내를 없애준다. 그렇게 참숯으로 인한 훈연의 향과 복분자의 달달한 향이 그대로 배어 부드러운 육질, 풍부한 육즙과 더불어 입안에서 함께 퍼진다. 중문 흑돼지 맛집답게 주인장이 제주산 청정재료로 직접 만든 정갈한 반찬 역시 입맛을 돋운다. MBC에브리원 ‘맛있을 지도’ 방송에도 소개된바 있는 ‘돈가득’은 MC 개그맨 김경식과 일본여자연예인 사유리와 게스트 두 명까지, 총 4명의 출연진들의 입맛을 사로잡으며 눈길을 끌었다. 그렇게 지금은 관광객뿐 아니라 현지 주민들도 많이 찾는 서귀포 맛집으로 자리매김했다. 서귀포 중문 맛집 ‘돈가득’ 관계자는 “품질을 최우선으로 하여 모든 식재료를 준비하고 조리한다. 작은 밑반찬까지도 정성을 다했기 때문에 한 번 오시면 잊지 못하고 또 방문하실 수 있도록 항상 노력하고 있다. 방문하신 손님들의 작은 칭찬이 큰 힘이 된다. 계속 좋은 음식으로 보답할 것이다”라고 전했다. 화창한 6월 제주도로 떠나는 여행을 계획 중이라면 식도락은 ‘돈가득’에서, 예약 및 문의 가능하다. 장준영 기자 pamir63@busaneconomy.com 장준영 기자 pamir63@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제21회 제주도 관광기념품 공모전 개최 &lt; 실시간뉴스 &lt; 정치/행정 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 11:33 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제21회 제주도 관광기념품 공모전 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치/행정 실시간뉴스 제21회 제주도 관광기념품 공모전 개최 기자명 박민호 기자 입력 2018.06.10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도는 다양한 관광기념품을 발굴·육성하고, 입상작에 대한 상품화 지원 등 관광기념품 경쟁력을 강화하기 위해 ‘제21회 제주특별자치도 관광기념품 공모전’을 개최한다고 10일 밝혔다.이번 공모전은 2개 분야(전통기념품 분야, 현대기념품분야)로 추진되며 한국적 고유의 색채를 보유하고 제주 전통문화를 계승하는 기념품, 현대적 디자인의 실용성이 강조된 민·공예품, 공산품, 가공품 등 국내외 관광객들이 구매할 수 있는 모든 관광기념품이 대상이다.응모자격에는 제한이 없으며, 공모전 출품을 원하는 업체 및 개인은 다음달 16일부터 31일까지 참가신청서와 출품작을 제주특별자치도 관광협회로 제출하면 된다.공모전 입상작은 상장(대상, 금상, 은상, 동상, 장려상, 입선)과 시상금(3500만원)이 수여되며, 상품화를 위한 다양한 지원이 이뤄진다.양기철 관광국장은“다양한 관광기념품 공모 선정을 통해 제주를 대표할 수 있는 관광상품이 개발 될 수 있도록 지속적인 노력을 해 나갈 것”이라며 “요즘 트렌드에 맞게 젊은 층이 많이 신청해 달라”고 당부했다. 박민호 기자 mino7791@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 전기료 인상에 광어 업계 속 타는데 제주어류양식수협은 ‘수수방관’ 포토뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 4 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>6월의 제주도, 서귀포 중문 관광과 흑돼지 맛집 기행 &lt; TV &lt; TV/연예 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 TV/연예 TV 6월의 제주도, 서귀포 중문 관광과 흑돼지 맛집 기행 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2018.06.02 17:20 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 사계절 내내 각각 다른 매력으로 언제 가도 매력적인 제주도는 파란하늘과 바람, 푸른 바다와 특산 음식까지, 여행의 요소를 다양하게 갖춘 우리나라의 대표적인 관광 섬이다. 특히 서귀포시에 위치한 중문은 천제연폭포와 주상절리, 색달 해변과 쉬리언덕, 여미지식물원과 다양한 박물관 관람까지, 다채롭게 제주도를 즐길 수 있는 위락단지로 무엇보다 제주특산음식으로 즐기는 식도락까지 가능해 많은 관광객들이 찾는 제주필수여행코스다. 중문동 2025-1에 위치한 복분자 흑돼지 맛집 ‘돈가득’은 제주도산 두툼한 흑돼지를 품질 좋은 참숯에 굽고 굽기 직전 복분자를 뿌려주어 잡내를 없애 독보적인 흑돼지 맛 자랑하는 제주도 맛집이다. MBC에브리원 ‘맛있을 지도’ 먹방 프로그램에도 방송되어 좋은 반응을 얻은바 있는 ‘돈가득’은 주인장이 제주산 청정재료로 직접 만든 정갈한 반찬들, 두툼한 흑돼지와 이곳만의 특제양파절임의 깔끔한 맛 조화에 반한 MC 김경식과 사유리가 어느 때보다도 푸짐한 먹방을 완성했다는 후문이다. 또 서귀포 맛집으로 관광객뿐 아니라 현지 주민들에게 입소문이 자자한 ‘돈가득’은 복분자 흑돼지뿐 아니라 점심특선메뉴로 제공되는 전복이 푸짐하게 들어간 ‘흑돼지불고기전골’로 손님들의 만족도가 높은 명실상부 중문 흑돼지 맛집이다. 중문 맛집 ‘돈가득’ 관계자는 “품질 좋은 흑돼지와 품질 좋은 참숯 사용 등 가장 기본적인 원칙을 항상 우선으로 생각한다. 깔끔하고 푸짐한 음식으로 제주도에 오신, 그리고 우리 가게에 오신 분들이 모두 좋은 추억 남기고 가실 수 있도록 계속 노력할 것이다”고 전했다. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 도로 위 달리는 기차 ‘트램’...안전대책 미비 축산물품질평가원 '특공 취지' 역행... 절반이 매도·임대 행렬 한화이글스 안방마님 최재훈 후계자 찾기 3파전 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 인기기사 주간 일간 1 우려가 현실로... 세종시 70대 여성 '전동 킥보드 사고'로 사망 2 충남 공주에 본사를 둔 우석건설 부도 3 대전 서남부종합스포츠타운, 연말 그린벨트 해제 요청 4 제1회 세종시 '어울링 바이크' 투어... 10일 정상 진행한다 5 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 6 10월 둘째 주 아파트 분양일정 7 대전 용문동 1·2·3구역 ‘둔산 더샵 엘리프’ 중소기업 근로자 특별공급 8 [관점] ‘이장우·김태흠 100일’ 권위주의 리더십의 한계 9 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 10 충남도, 사립유치원 교육비 지원 중단되나 1 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 2 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 3 대전 UCLG 총회 아태지부 '네트워킹의 밤' 성료 4 제13회 대전효문화뿌리축제, 3대가 함께 어우러진 안전한 축제로 마무리 5 유성구, 2022 앙코르 실버페스티벌 대성황 6 서산시·태안군, 행안부 특별교부세 55억 확보 7 동구 정다운어르신복지관 제26회 노인의날 기념 경로잔치 8 청양군청 이희진 선수 ‘1cm 차’ 명승부 은메달 9 서산 해미읍성축제 성료···민초의 삶 구현 호평 10 서구 월평2동, 2022 선사마을 축제 성료 실시간 댓글 최신댓글 댓글많은기사 1 뭐때문에 이렇게 화가 나신건지 도통 알수가없네;; 일단 한글부터 좀 제대로 익히시고 말씀을 해주시길.. 학교폭력은 학교랑 경찰이랑 상의하세요 2 자기들이 공무원 하겠다고 민간인 신분을 잠시 내려놓은것 아닌가요? 공무원 하겠다고 하는사람들이 하라는 봉사는 안하고 일은 저질러놓고 손해배상은 나몰라라 하고 말로만 떠들어대고 책임감도없고 일하기는 싫고 탁상 행정은 먼가요 그러고 일반인이 관련 법 일일이 찻자서 대응 하면 괄련 법령이 삭제(소멸) 되는걸 모르세요 발령 받아서 도망가면 끝 3 규종님 응원하고 있어요!! 달도효소 화이팅! 4 건강분야 컨셉 잘 선택하신것 같아요^ 오랫동안 잘 브랜드 만드시길 응원합니다. 5 달도효소^^ 김규종님 응원합니다^^~~ 6 규종오빠 항상 응원해요 7 SS501 김규종. 어제 살림남2 최수종 하희라편에도 나오던데, 최수종하고도 가까운 사이인가요? ㅎㅎ 달도효소는 무엇인가요? 궁금합니다. 아무튼 제2의인생 잘 시작하길 바랍니다 8 언제 이런걸준비했대요? 외디즈 달도효소^^ ㅋㅋ 규종님. 제 2의 사업도 대승하리라 믿어의심치 않습니다. 저도 펀딩하고 먹어볼께요.^^ 9 진짜맛있어요. 달도효소! 오빠의 진심이 느껴집니다.^^ 10 와디즈에 펀딩했어요. 오빠의 진심이 느껴지는 상세페이지 사업가로서도 성공하길 기도합니다 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 5 지방거점국립대 1인당 교육비, 서울대 38.9% 수준 6 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 7 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 8 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 9 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 10 [부고] 박순영(지방분권 세종회의 회장) 씨 별세 하단영역 주요뉴스 대전신일여고, 지역 주민과 함께 하는 ' ‘Gallery 48’ 개관 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 도로 위 달리는 기차 ‘트램’...안전대책 미비 ‘강경젓갈이 상월고구마를 만나다!’ 12일 개막 논산시의회, 개원 100일 맞아...생활밀착형 의정활동 펼쳐 계룡세계군문화엑스포, 국내외 참전용사 및 가족 초청 행사 개최 전교조 대전지부 "갑질 부추기는 이장우 대전시장" 대전 서구 월평도서관 원데이 미디어 클래스 운영 대전 서구, 갈마·둔산·월평도서관 시니어 기초영어 운영 계룡시, 소규모 농업인 시설하우스 지원 추진 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
   </si>
   <si>
     <t>북파주농협, 원로조합원과 함께 제주도 관광 ‘훈훈’ - 농민신문 컨텐츠 바로가기 지역&amp;현장 구독신청 PDF 지면보기 로그인 전체메뉴 농촌사회 지역소식 페이스북 트위터 네이버 블로그 카카오 스토리 인스타그램 유튜브 login 닫기 search2 로그인 회원가입 뉴스 많이 본 기사 최신 기사 이 시간 뉴스 정책 정부 국회 농협·농업단체 정책일반 경제 유통 농산업 축산 금융·재테크 국제 자연&amp;사람 먹을거리 여행 귀농·귀촌 도시&amp; 인터뷰 건강 책 생활정보 문화일반 지역&amp;현장 농촌사회 지역소식 오피니언 사설 사내칼럼 외부칼럼 만평 기획·연재 기획시리즈 포토·동영상 포토 동영상 카드뉴스 정보광장 사고 공모전·행사 지상복덕방 기사제보 신춘문예 당선작 영농·생활수기 수상작 조합장 현황 객원기자방 만화 책방 매거진 전원생활 어린이동산 디지털농업 월간축산 콘텐츠몰 PDF 지면보기 농민신문·월간지 구독신청 책방/신간·베스트셀러 기사·사진 구입 북파주농협, 원로조합원과 함께 제주도 관광 ‘훈훈’ 입력 : 2018-06-15 00:00 스크랩 프린트 작게 크게 댓글 페이스북 트위터 네이버블로그 카카오톡 링크복사하기 80여명 초청…다문화여성대학도 문 활짝 경기 북파주농협(조합장 성찬현·사진)이 원로조합원 모시기와 결혼이민여성 지원에 팔을 걷어붙였다. 북파주농협은 5월29~31일 조합원으로 가입한 지 30년이 지난 75세 이상 어르신 80여명을 모시고 제주도 현장교육을 했다. 어르신들은 제주지역 농업시설을 둘러보고 관광을 하며 유익하고 즐거운 시간을 가졌다. 이에 앞서 북파주농협은 5월25일 다문화여성대학을 개강했다. 필리핀·베트남 출신의 결혼이민여성 10명이 참여한 다문화여성대학은 7월20일까지 매주 금요일에 열린다. 강좌는 한국어교육과 농촌체험, 전통음식 만들기, 공예품 만들기 등으로 다채롭게 구성됐다. 성찬현 조합장은 “북파주농협 발전의 주역인 원로조합원들이 건강하고 행복한 노후를 보낼 수 있도록 최선을 다하겠다”고 밝혔다. 파주=김은암 기자 ⓒ 농민신문 &amp; nongmin.com, 무단 전재 및 수집, 재배포 금지 댓글 페이스북 트위터 네이버블로그 카카오톡 링크복사하기 게시판 관리기준? 게시판 관리기준? 비방, 욕설, 광고글이나 허위 또는 저속한 내용 등은 사전 통보 없이 삭제되거나 댓글 작성이 금지될 수 있습니다. 농민신문 페이스북 네이버블로그 카카오스토리 농민신문 및 소셜계정으로 댓글을 작성하세요. 로그인 후 댓글 작성이 가능합니다. 0 /200자 등록하기 기획·연재 많이 본 기사 종합 이전 기사보기 1/3 다음 기사보기 이전 기사보기 1/3 다음 기사보기 최신기사 이전 기사보기 1/3 다음 기사보기 공유하기 페이스북 트위터 네이버블로그 카카오톡 링크복사 닫기 농민신문에서 알려드립니다! 오늘 하루 열지 않기 닫기 본문인쇄 프린트 © 농민신문사&amp;nongmin.com, 무단 전재 및 수집, 재배포 금지 인쇄 닫기 맨 위로 이동 서비스 전체보기 뉴스 많이 본 기사 최신 기사 이 시간 뉴스 정책 정부 국회 농협·농업단체 정책 일반 경제 유통 농산업 축산 금융·재테크 국제 자연&amp;사람 먹을거리 여행 귀농·귀촌 도시&amp; 인터뷰 건강 책 생활정보 문화일반 지역&amp;현장 농촌사회 지역소식 오피니언 사설 사내칼럼 외부칼럼 기획·연재 기획시리즈 포토·동영상 포토 동영상 카드뉴스 정보광장 사고 공모전·행사 지상복덕방 기사제보 신춘문예 당선작 영농·생활수기 수상작 조합장 현황 객원기자방 만화 책방 매거진 전원생활 어린이동산 디지털농업 월간축산 콘텐츠몰 PDF 지면보기 농민신문·월간지 구독신청 책방/신간·베스트셀러 기사·사진 구입 회사소개 구독신청 광고문의 PDF 지면보기 기사제보 회원약관 개인정보처리방침 청소년보호정책 윤리강령 저작권규약 고충처리인 인터넷신문 등록번호 서울 아04964등록일자 2018년 2월 9일창간일자 1964년 8월 15일발행인 (사)농민신문사 이성희편집인 대표자 하승봉 주소 서울특별시 서대문구 독립문로 59 (사)농민신문사사업자등록번호 102-82-05549통신판매신고번호 2018-서울서대문-0118 한국기자협회 회원사한국신문윤리위원회 서약사인터넷신문위원회 자율심의 준수서약사 copyright ⓒThe Farmers Newspaper. All rights reserved. 02)3703-6114master@nongmin.com 관련사이트 농림축산식품부 한국농수산식품유통공사(aT) 농촌진흥청 국립축산과학원 축산물품질평가원 농협중앙회 농협미래농업지원센터 농협축산정보센터 NH여행 한국농촌경제연구원 KREI농업관측본부 한국농어촌공사 귀농귀촌종합센터 전국귀농운동본부</t>
   </si>
   <si>
-    <t>제주도 방문관광객, 특급호텔 선호도 높아… 도심형 복합리조트 ‘제주드림타워’ 분양 - 울산매일 2022.10.4 화 로그인 회원가입 페이스북 트위터 인스타그램 카카오스토리채널 기사제보독자투고 광고신청 구독신청 전체 뉴스Now 오피니언 사설 반구대 매일시론 경제칼럼 자치시대 문화산책 현장소리 사는이야기 기고 뉴스에세이 아침을 여는 시 데스크 칼럼 기자의 눈 울산의 창 남은우의 시산책 흑백사진 속으로 하주의 공연읽기 박용하의 문화읽기 배창호의 영화읽기 기타 오나경의 21세기미술관 김병길주필 회상록 울매詩選 허명·이인호의 문화 줌인 예채영의 미술읽기 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 정치 종합 지방의회 국회/정당 행정/외교 북한/통일 대통령실 선거 기타 경제 기업 경제단체 금융/증권 유통 건설/부동산 해운/항만 농축수산업 중소기업 기타 사회 노동 환경/생태 교육 자치단체 검찰/법조 사건/사고 사회단체 기타 문화 공연 전시 축제/행사 향토문화사 문화재 문학/출판 영화 울산맛집 종교 울산 방송가 김일훈의 민속을 말하다 김창일의 울산 농어촌 사계 박영식 시인의 육필의 향기 드론으로 보는 울산의 문화재 민용기의 POP과 JAZZ 태화강재즈페스티벌 음악에세이 연재 문화정책 육필의 향기 렌즈속 이야기 기타 김태환 연재소설 수상 집콕문화생활즐기기 울산 여성독립운동 톺아보기 울산 지질지형유산 둘러보기 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속 풍경 렌즈 속 이야기 화보 남북정상회담 U TV 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 카드뉴스 415 중구 415 남구갑/을 415 북구 415 동구 415 울주군 덕질의 세계 사람과삶 사람과삶 외신 연예 방송 연예가 영화 음악 기타 스포츠 축구 야구 농구 골프 울산체육 기타 지방 부산 양산 기타 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 부동산 해오름 문화유산탐방 건강의료 울산야생화 탐사 기타 생활정보 날씨 행사 경제지표 오늘운세 로또 건강생활Q&amp;A 경매 생활법률 회화-중국어 회화-영어 고용/노동 Q&amp;A 증권 정보과학 기타 열린마당 본사알림 알림 부음 결혼 인사 모집 독자권익위원회 청소년기자 뉴스 뉴스NOW 정치 지방선거 경제 사회 문화 사람과삶 외신 연예 스포츠 지방 울산 부유식해상풍력 민간사업자, 정치프레임에 '발동동' 與 vs 李 ‘가처분 3차전’ 격돌 … 비대위, 다음주 중대기로 "대기업·지자체 협력 통해 ‘ESG 경영’ 인식 변화부터" "코닿을 거리에 게이트볼장 웬말" 방어동 주민 반발 오피니언 사설 매일시론 경제칼럼 자치시대 문화산책 사는이야기 현장소리 기고 뉴스에세이 반구대 울산의 창 데스크 칼럼 기자의 눈 아침을 여는 시 오나경의 21세기 미술관 김병길주필 회상록 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 [김진영의 울산여지도] 태화, 울산 풍수의 양기가 맺힌 땅 [현장소리] 사회안전망 구축, 서비스 질 제고의 큰 전환점 [김대식 칼럼] 지도자 성공의 리더십, 이건희 회장에게 배운다 [사는이야기] 퍼터(Putter)와 에티튜드(Attitude) 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속풍경 렌즈 속 이야기 화보 배호 그림세상(2022.9.29) 배호 그림세상(2022.9.28) 배호 그림세상(2022.9.27) 배호 그림세상(2022.9.26) 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 해오름 문화유산탐방 건강의료 기타 국산모델 수출 등 기술력은 충분 … 상용화 머지않았다 소비에 ‘가치’ 부여 … 다이닝에도 ‘제로웨이스트’ 바람 대중교통 선진지 이끄는 트램, 관광자원 역할도 ‘톡톡’ "누구든 ‘유쾌한 고발자’될때 ‘탄소 발자국’도 줄어" 신문보기 PDF 보기 4-15 총선공약 "질문 배달 왔어요" 중구 남구갑/을 북구 동구 울주군 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 [about울산전국체전] 최초·최연소 신화 ‘다이빙여제’ … "최선다해 즐기겠다" ESG중심 지역사회 가치 성장을 위한 2022 울산포럼 개최｜SK그룹X울산상의 "&gt;SK 최태원 회장, "울산에서 로컬대전환 해법찾자" 색소폰 연주로 귀호강, 2022 전국색소폰경연대회 현장 인터랙티브+ 통합검색 기사검색 상세검색 상세검색 검색기간 전체 1년 한달 일주일 3일 오늘 ~ 섹션별 섹션을 선택해주세요. 뉴스Now 오피니언 정치 경제 사회 문화 포토 U TV 사람과삶 외신 연예 스포츠 지방 기획 생활정보 열린마당 핫이슈 라이프 21대 국회의원선거 지방선거 엔디테스트 검색영역 전체 제목 부제목 제목+부제목 제목 + 본문 본문 기자 콘텐츠 범위 전체 기사내 사진 포함 기사내 동영상 포함 검색어 검색 초기화 상단여백 다음 이전 Home 라이프 제주도 방문관광객, 특급호텔 선호도 높아… 도심형 복합리조트 ‘제주드림타워’ 분양 페이스북 트위터 카카오스토리 밴드 메일 프린트 HOME 라이프 제주도 방문관광객, 특급호텔 선호도 높아… 도심형 복합리조트 ‘제주드림타워’ 분양 Online 디지털미디어국 승인 2018.06.21 09:24 댓글 0 구글+ 블로그 밴드 카카오스토리 트위터 페이스북 메일보내기 인쇄하기 뉴스NOW 與 "전직 대통령이라고 성역 있을 순 없어"사원 서면조사 요구에 문 "대단히 무례한 짓"'박진 해임안' 與 불참 속 野 단독 본회의 처리이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵'尹대통령, 오늘 해리스 美부통령 접견…북핵 논의北, 도발수위 높이나…美, 주시 속 北 핵실험 경고'러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 '쌍방울 뇌물 협의' 이화영 구속'위례신도시 211억 특혜' 유동규·남욱·정영학 기소오늘부터 오미크론 대응 개량백신 접종 사전예약尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선"코로나 출구전략 속도내는 정부…다음 수순은'빅스텝 공포'…서울 아파트 수급지수 80선 무너져한미일 외교장관, 뉴욕서 회담…"북핵 긴밀 공조"尹대통령-기시다, 결국 만났다, 30분 정상회담 美, 3연속 자이언트 스텝…한미 금리 재역전3년만에 뉴욕에 모인 각국 정상 유엔 총회 기조연설 개막尹대통령 "국제사회 연대로 자유 지켜야 대한민국 책임 다할 것"엘리자베스 英여왕 세계와 영국에 작별 고하고 영면尹, 조문록 작성…"여왕과 동시대 공유해 영광이었다" 열기/닫기 닫기 뉴스NOW 與 "전직 대통령이라고 성역 있을 순 없어" 3시간 전 사원 서면조사 요구에 문 "대단히 무례한 짓" 10시간 전 '박진 해임안' 與 불참 속 野 단독 본회의 처리 4일 전 이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵' 4일 전 尹대통령, 오늘 해리스 美부통령 접견…북핵 논의 5일 전 北, 도발수위 높이나…美, 주시 속 北 핵실험 경고 5일 전 '러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 6일 전 '쌍방울 뇌물 협의' 이화영 구속 6일 전 '위례신도시 211억 특혜' 유동규·남욱·정영학 기소 7일 전 오늘부터 오미크론 대응 개량백신 접종 사전예약 7일 전 尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선" 8일 전 코로나 출구전략 속도내는 정부…다음 수순은 8일 전 '빅스텝 공포'…서울 아파트 수급지수 80선 무너져 11일 전 한미일 외교장관, 뉴욕서 회담…"북핵 긴밀 공조" 11일 전 尹대통령-기시다, 결국 만났다, 30분 정상회담 12일 전 美, 3연속 자이언트 스텝…한미 금리 재역전 12일 전 3년만에 뉴욕에 모인 각국 정상 유엔 총회 기조연설 개막 13일 전 尹대통령 "국제사회 연대로 자유 지켜야 대한민국 책임 다할 것" 13일 전 엘리자베스 英여왕 세계와 영국에 작별 고하고 영면 14일 전 尹, 조문록 작성…"여왕과 동시대 공유해 영광이었다" 14일 전 최근 제주도를 방문하는 다양한 국적의 외국인 관광객과 국내 관광객들이 다양한 부대시설을 비롯해 차별화된 서비스 및 인테리어를 경험할 수 있는 특급호텔을 선호하는 현상이 두드러지고 있다. 이를 증명하듯 제주도 내 5성급 호텔 가동률은 84.07%를 기록하고 있으며, 이는 전국에서 가장 높은 가동률이다. 이러한 가운데 천혜의 자연경관을 가까이서 누릴 수 있는 대표적인 관광도시인 제주도에 조성되는 ‘제주드림타워’가 도심형 복합리조트로 건설되면서 주목을 받고 있다. 제주드림타워는 롯데관광개발과 그린랜드그룹이 공동개발로 참여하고, 중국건축이 책임준공에 나섰다. 이 외에도 시아플랜과 HBA, 마샤 슈워츠, 웨트 디자인, 웨스타 아키텍트 등 세계적인 그룹이 함께 참여해 탄탄한 신뢰성을 확보한 것이 특징이다. 제주시 노형동 일원에 조성되는 트윈타워인 제주드림타워는 지하6층부터 지상38층 규모로 건립될 예정이다. 8층 야외 풀데크에는 국내 최대 규모의 인피니티풀이 조성될 예정으로 알려져 있으며 이 밖에도 외국인전용 카지노(예정)와 제주 최대 규모의 쇼핑몰, 11개의 글로벌 레스토랑과 바(Bar), 호텔부대시설 등을 갖출 것으로 예상돼 제주의 대표적인 관광명소가 될 수 있을 것으로 기대를 모으고 있다. 제주드림타워 호텔레지던스는 802실의 '스탠다드 스위트 객실‘과 48실의 ’프리미어 스위트 객실‘ 등 총 850실의 객실로 조성된다. 한라산뷰와 바다뷰, 도심뷰 등 수요자가 원하는 뷰 포인트를 제공할 수 있는 객실은 고급스러운 인테리어와 시설을 적용해 수요자들의 편의와 만족도를 높일 것으로 기대되고 있다. 제주드림타워 스탠다드 스위트 객실에는 초대형 전면창 및 개폐창을 적용해 쾌적한 조망을 가능하게 할 예정이며, 킹사이즈침대 및 스마트TV, 다용도 테이블과 미니바, 대형 샤워부스 및 아일랜드 욕조, 트윈 세면대 등을 적용할 예정이다. 프리미어 스위트 객실은 파노라마뷰 감상이 가능한 Day Bed를 비롯해 킹사이즈침대와 스마트TV, 4인용 다이닝테이블과 미니바, 별도의 게스트 화장실 및 Walk-in Closet 등을 적용할 방침이다. 한편 세계 최초로 유네스코 자연유산 3관왕 달성과 더불어 세계 7대 자연경관 선정 등 아름다운 자연경관을 보유하고 있는 제주도는 다양한 개발호재가 예정돼 있어 지속적인 관광객 증가가 나타나고 있다. 제주국제공항과 제주국제 크루즈터미널이 가까이에 위치해 있는 만큼 다양한 경로로 관광객이 유입되고 있으며, 제주 제2국제공항도 조성되면 관광객의 유입이 더욱 증가할 것으로 보여 제주드림타워와 같은 호텔 공급 필요성이 더욱 높아지고 있다. 뿐만 아니라 제주항공우주박물관과 신화역사공원 조성, 헬스케어타운 영어교육도시 조성, 제주첨단과학기술단지 조성 등 다양한 개발호재가 예정돼 있어 제주드림타워의 향후 미래가치도 더욱 높아질 것으로 기대되고 있다. &lt;저작권자 © 울산매일, 무단 전재 및 재배포 금지&gt; 저작권 문의 디지털미디어국 다른기사 보기 webmaster@iusm.co.kr 페이스북 이메일 icon오늘의 인기기사 3년만에 전면 대면 울산옹기축제 42만명 몰려 '북새통'[반구대] ‘황제도피의 끝’완전개통 이예로 달려보니 … 남북 ‘30분 생활권’ 맞네(사설) 여전히 부족한 울산 도로망, 정부 투자 끌어내야태화강국가정원에 울려 퍼진 재즈선율 시민들'힐링' 3년만에 전면 대면 울산옹기축제 42만명 몰려 '북새통' 댓글 (200자평) 0개 전체보기 200자까지 쓰실 수 있습니다. 등록 ※ 비속어와 인신공격성 글 등은 바로 삭제됩니다. 특히, 근거 없는 글로 타인의 명예를 훼손하면 민·형사상 처벌을 받을 수 있습니다. [댓글(200자평)운영규칙 보기] 첫번째 댓글을 남겨주세요. 여백 회원사 한국신문협회 한국기자협회 한국사진기자협회 한국ABC 제휴사 중앙일보 워싱턴포스트 블룸버그 중국 長春日報 노컷뉴스 회사소개 광고안내 불편신고 제휴안내 개인정보취급방침 이메일무단수집거부 청소년보호정책 청탁금지법 현황 울산광역시 남구 두왕로 337-1 리더스파크  |  대표전화 : 052-243-1001  |  팩스 : 052-271-8790  |  사업자번호 : 620-81-14006 등록번호 : 울산,아01104  |   등록날짜 : 2017년 7월 13일  |  발행·편집인 : 이연희   |  청소년보호책임자 : 강정원 Copyright © 2022 울산매일. All rights reserved. 온라인 컨텐츠 및 뉴스저작권 문의 webmaster@iusm.co.kr RSS 서비스 Back to Top</t>
+    <t>제주도 방문관광객, 특급호텔 선호도 높아… 도심형 복합리조트 ‘제주드림타워’ 분양 - 울산매일 2022.10.11 화 로그인 회원가입 페이스북 트위터 인스타그램 카카오스토리채널 기사제보독자투고 광고신청 구독신청 전체 뉴스Now 오피니언 사설 반구대 매일시론 경제칼럼 자치시대 문화산책 현장소리 사는이야기 기고 뉴스에세이 아침을 여는 시 데스크 칼럼 기자의 눈 울산의 창 남은우의 시산책 흑백사진 속으로 하주의 공연읽기 박용하의 문화읽기 배창호의 영화읽기 기타 오나경의 21세기미술관 김병길주필 회상록 울매詩選 허명·이인호의 문화 줌인 예채영의 미술읽기 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 정치 종합 지방의회 국회/정당 행정/외교 북한/통일 대통령실 선거 기타 경제 기업 경제단체 금융/증권 유통 건설/부동산 해운/항만 농축수산업 중소기업 기타 사회 노동 환경/생태 교육 자치단체 검찰/법조 사건/사고 사회단체 기타 문화 공연 전시 축제/행사 향토문화사 문화재 문학/출판 영화 울산맛집 종교 울산 방송가 김일훈의 민속을 말하다 김창일의 울산 농어촌 사계 박영식 시인의 육필의 향기 드론으로 보는 울산의 문화재 민용기의 POP과 JAZZ 태화강재즈페스티벌 음악에세이 연재 문화정책 육필의 향기 렌즈속 이야기 기타 김태환 연재소설 수상 집콕문화생활즐기기 울산 여성독립운동 톺아보기 울산 지질지형유산 둘러보기 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속 풍경 렌즈 속 이야기 화보 남북정상회담 U TV 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 카드뉴스 415 중구 415 남구갑/을 415 북구 415 동구 415 울주군 덕질의 세계 사람과삶 사람과삶 외신 연예 방송 연예가 영화 음악 기타 스포츠 축구 야구 농구 골프 울산체육 기타 지방 부산 양산 기타 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 부동산 해오름 문화유산탐방 건강의료 울산야생화 탐사 기타 생활정보 날씨 행사 경제지표 오늘운세 로또 건강생활Q&amp;A 경매 생활법률 회화-중국어 회화-영어 고용/노동 Q&amp;A 증권 정보과학 기타 열린마당 본사알림 알림 부음 결혼 인사 모집 독자권익위원회 청소년기자 뉴스 뉴스NOW 정치 지방선거 경제 사회 문화 사람과삶 외신 연예 스포츠 지방 공공기관장 사퇴 종용 · 5급 이상 무한경쟁 ‘폭탄 발언’ ‘함께뛰는 울산 하나되는 대한민국’ 7일간의 열전 돌입 삼동면 관광농원 특혜 보따리? … 이번엔 글램핑 분양 논란 "발로뛰는 현장소통 의정활동 민생 공감 총력 다할 것" 오피니언 사설 매일시론 경제칼럼 자치시대 문화산책 사는이야기 현장소리 기고 뉴스에세이 반구대 울산의 창 데스크 칼럼 기자의 눈 아침을 여는 시 오나경의 21세기 미술관 김병길주필 회상록 매일통신 독자투고 에너지칼럼 자치시대 김동수의 세상만사 황일순 칼럼 풍력칼럼 울산을 읊다 [기고] 국민건강보험 안정적 정부지원 법 개정 필요 [문화산책] 코스모스 [반구대] ‘이예로’ [현장소리] 청년들의 미래 이대로 괜찮은가? 포토 포토뉴스 만평 이슈포토 그래픽 카드뉴스 그시절 산속풍경 렌즈 속 이야기 화보 ‘전국(장애인)체전 개·폐회식 관람객 편의물품 후원 전달식‘ ‘전국(장애인)체전 개·폐회식 관람객 편의물품 후원 전달식‘ 전국체전 최종 리허설 배호 그림세상(2022.10.7) 기획 기획특집 대한민국 인류유산 대곡천암각화군 울산옛터비에 담긴 기억들 울산이 부른다 Life&amp;Joy 와이드인터뷰 해오름 문화유산탐방 건강의료 기타 국산모델 수출 등 기술력은 충분 … 상용화 머지않았다 소비에 ‘가치’ 부여 … 다이닝에도 ‘제로웨이스트’ 바람 대중교통 선진지 이끄는 트램, 관광자원 역할도 ‘톡톡’ "누구든 ‘유쾌한 고발자’될때 ‘탄소 발자국’도 줄어" 신문보기 PDF 보기 4-15 총선공약 "질문 배달 왔어요" 중구 남구갑/을 북구 동구 울주군 공간 울림 우당탕탕 · 체인지 같이 밥먹을래요? · 백썰기 기획 특집 뉴스 VR 매일+ 독자 영상 영상스케치 여행영상 맛집 [MZ뉴스] '도로위 빌런' 모음 [MZ뉴스]내년부터 싹 다 바뀌는 군부대 [태권도 시범단 풀영상] 성화만큼 뜨거운 태권도 퍼포먼스에 박수갈채 [울산전국체전]박상영 선수, 신들린 찌르기로 펜싱 에뻬 개인전 4강 진출, 부상투혼에도 졌잘싸 인터랙티브+ 통합검색 기사검색 상세검색 상세검색 검색기간 전체 1년 한달 일주일 3일 오늘 ~ 섹션별 섹션을 선택해주세요. 뉴스Now 오피니언 정치 경제 사회 문화 포토 U TV 사람과삶 외신 연예 스포츠 지방 기획 생활정보 열린마당 핫이슈 라이프 21대 국회의원선거 지방선거 엔디테스트 검색영역 전체 제목 부제목 제목+부제목 제목 + 본문 본문 기자 콘텐츠 범위 전체 기사내 사진 포함 기사내 동영상 포함 검색어 검색 초기화 상단여백 다음 이전 Home 라이프 제주도 방문관광객, 특급호텔 선호도 높아… 도심형 복합리조트 ‘제주드림타워’ 분양 페이스북 트위터 카카오스토리 밴드 메일 프린트 HOME 라이프 제주도 방문관광객, 특급호텔 선호도 높아… 도심형 복합리조트 ‘제주드림타워’ 분양 Online 디지털미디어국 승인 2018.06.21 09:24 댓글 0 구글+ 블로그 밴드 카카오스토리 트위터 페이스북 메일보내기 인쇄하기 뉴스NOW 美, 김정은 '대화 불필요'에 "외교적 접근 전념"러 우크라 전역 대규모 공습…주요 인프라 파괴北, 전투기·폭격기 등 12대 무력시위…F-15K 등으로 대응이준석 '당원권 정지 1년' 추가 징계… 총선 어려울 듯北, 이틀만에 또 탄도미사일…美항모 재출동에 무력시위강원도 예미산 1천ｍ 지하에 지하실험실 조성바이든, 尹대통령에 친서…'인플레법' 협의"4분기 수출도 먹구름…"환율 변동·경기 둔화 애로 급증"북, 일본 통과 중거리미사일 쐈다與 "전직 대통령이라고 성역 있을 순 없어"사원 서면조사 요구에 문 "대단히 무례한 짓"'박진 해임안' 與 불참 속 野 단독 본회의 처리이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵'尹대통령, 오늘 해리스 美부통령 접견…북핵 논의北, 도발수위 높이나…美, 주시 속 北 핵실험 경고'러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 '쌍방울 뇌물 협의' 이화영 구속'위례신도시 211억 특혜' 유동규·남욱·정영학 기소오늘부터 오미크론 대응 개량백신 접종 사전예약尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선" 열기/닫기 닫기 뉴스NOW 美, 김정은 '대화 불필요'에 "외교적 접근 전념" 5시간 전 러 우크라 전역 대규모 공습…주요 인프라 파괴 5시간 전 北, 전투기·폭격기 등 12대 무력시위…F-15K 등으로 대응 4일 전 이준석 '당원권 정지 1년' 추가 징계… 총선 어려울 듯 4일 전 北, 이틀만에 또 탄도미사일…美항모 재출동에 무력시위 5일 전 강원도 예미산 1천ｍ 지하에 지하실험실 조성 5일 전 바이든, 尹대통령에 친서…'인플레법' 협의" 5일 전 4분기 수출도 먹구름…"환율 변동·경기 둔화 애로 급증" 6일 전 북, 일본 통과 중거리미사일 쐈다 6일 전 與 "전직 대통령이라고 성역 있을 순 없어" 7일 전 사원 서면조사 요구에 문 "대단히 무례한 짓" 7일 전 '박진 해임안' 與 불참 속 野 단독 본회의 처리 11일 전 이틀 연속 탄도미사일 발사한 北, 이번에도 '침묵' 11일 전 尹대통령, 오늘 해리스 美부통령 접견…북핵 논의 12일 전 北, 도발수위 높이나…美, 주시 속 北 핵실험 경고 12일 전 '러 탈출 러시' 위성사진 확인…16㎞ 차량 행렬 13일 전 '쌍방울 뇌물 협의' 이화영 구속 13일 전 '위례신도시 211억 특혜' 유동규·남욱·정영학 기소 14일 전 오늘부터 오미크론 대응 개량백신 접종 사전예약 14일 전 尹 "中 대만 공격시 北도 도발 가능성…北대응이 최우선" 15일 전 최근 제주도를 방문하는 다양한 국적의 외국인 관광객과 국내 관광객들이 다양한 부대시설을 비롯해 차별화된 서비스 및 인테리어를 경험할 수 있는 특급호텔을 선호하는 현상이 두드러지고 있다. 이를 증명하듯 제주도 내 5성급 호텔 가동률은 84.07%를 기록하고 있으며, 이는 전국에서 가장 높은 가동률이다. 이러한 가운데 천혜의 자연경관을 가까이서 누릴 수 있는 대표적인 관광도시인 제주도에 조성되는 ‘제주드림타워’가 도심형 복합리조트로 건설되면서 주목을 받고 있다. 제주드림타워는 롯데관광개발과 그린랜드그룹이 공동개발로 참여하고, 중국건축이 책임준공에 나섰다. 이 외에도 시아플랜과 HBA, 마샤 슈워츠, 웨트 디자인, 웨스타 아키텍트 등 세계적인 그룹이 함께 참여해 탄탄한 신뢰성을 확보한 것이 특징이다. 제주시 노형동 일원에 조성되는 트윈타워인 제주드림타워는 지하6층부터 지상38층 규모로 건립될 예정이다. 8층 야외 풀데크에는 국내 최대 규모의 인피니티풀이 조성될 예정으로 알려져 있으며 이 밖에도 외국인전용 카지노(예정)와 제주 최대 규모의 쇼핑몰, 11개의 글로벌 레스토랑과 바(Bar), 호텔부대시설 등을 갖출 것으로 예상돼 제주의 대표적인 관광명소가 될 수 있을 것으로 기대를 모으고 있다. 제주드림타워 호텔레지던스는 802실의 '스탠다드 스위트 객실‘과 48실의 ’프리미어 스위트 객실‘ 등 총 850실의 객실로 조성된다. 한라산뷰와 바다뷰, 도심뷰 등 수요자가 원하는 뷰 포인트를 제공할 수 있는 객실은 고급스러운 인테리어와 시설을 적용해 수요자들의 편의와 만족도를 높일 것으로 기대되고 있다. 제주드림타워 스탠다드 스위트 객실에는 초대형 전면창 및 개폐창을 적용해 쾌적한 조망을 가능하게 할 예정이며, 킹사이즈침대 및 스마트TV, 다용도 테이블과 미니바, 대형 샤워부스 및 아일랜드 욕조, 트윈 세면대 등을 적용할 예정이다. 프리미어 스위트 객실은 파노라마뷰 감상이 가능한 Day Bed를 비롯해 킹사이즈침대와 스마트TV, 4인용 다이닝테이블과 미니바, 별도의 게스트 화장실 및 Walk-in Closet 등을 적용할 방침이다. 한편 세계 최초로 유네스코 자연유산 3관왕 달성과 더불어 세계 7대 자연경관 선정 등 아름다운 자연경관을 보유하고 있는 제주도는 다양한 개발호재가 예정돼 있어 지속적인 관광객 증가가 나타나고 있다. 제주국제공항과 제주국제 크루즈터미널이 가까이에 위치해 있는 만큼 다양한 경로로 관광객이 유입되고 있으며, 제주 제2국제공항도 조성되면 관광객의 유입이 더욱 증가할 것으로 보여 제주드림타워와 같은 호텔 공급 필요성이 더욱 높아지고 있다. 뿐만 아니라 제주항공우주박물관과 신화역사공원 조성, 헬스케어타운 영어교육도시 조성, 제주첨단과학기술단지 조성 등 다양한 개발호재가 예정돼 있어 제주드림타워의 향후 미래가치도 더욱 높아질 것으로 기대되고 있다. &lt;저작권자 © 울산매일, 무단 전재 및 재배포 금지&gt; 저작권 문의 디지털미디어국 다른기사 보기 webmaster@iusm.co.kr 페이스북 이메일 icon오늘의 인기기사 조선소 선박 검댕 피해...불기둥 솟구친 SK에너지vs현대미포조선 책임 공방[경제칼럼] ESG 경영과 해비타트운동연휴 체전 맞춰 다양한 축제 … 경기장 안팎으로 ‘들썩’공권력까지 출동시킨 남구 웨딩홀 임대-임차인 갈등문인극회 '쫄병전선', 소설가 오영수 선생'화산댁이'무대위에 조선소 선박 검댕 피해...불기둥 솟구친 SK에너지vs현대미포조선 책임 공방 댓글 (200자평) 0개 전체보기 200자까지 쓰실 수 있습니다. 등록 ※ 비속어와 인신공격성 글 등은 바로 삭제됩니다. 특히, 근거 없는 글로 타인의 명예를 훼손하면 민·형사상 처벌을 받을 수 있습니다. [댓글(200자평)운영규칙 보기] 첫번째 댓글을 남겨주세요. 여백 회원사 한국신문협회 한국기자협회 한국사진기자협회 한국ABC 제휴사 중앙일보 워싱턴포스트 블룸버그 중국 長春日報 노컷뉴스 회사소개 광고안내 불편신고 제휴안내 개인정보취급방침 이메일무단수집거부 청소년보호정책 청탁금지법 현황 울산광역시 남구 두왕로 337-1 리더스파크  |  대표전화 : 052-243-1001  |  팩스 : 052-271-8790  |  사업자번호 : 620-81-14006 등록번호 : 울산,아01104  |   등록날짜 : 2017년 7월 13일  |  발행·편집인 : 이연희   |  청소년보호책임자 : 강정원 Copyright © 2022 울산매일. All rights reserved. 온라인 컨텐츠 및 뉴스저작권 문의 webmaster@iusm.co.kr RSS 서비스 Back to Top</t>
   </si>
   <si>
     <t>제주도, 제33회 한국국제관광전에서 ‘최우수 부스 운영상’ 수상 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 산업 | 경제 | 정책 전체보기 정부|지역 기관|협회 금융|경제 기업 항공|여행|레저 숙박|면세|유통 교역/전시/설명회 일반/단신 인바운드 목록 제주도, 제33회 한국국제관광전에서 ‘최우수 부스 운영상’ 수상 제주를 한번에 ‘탐나오’와 ‘시티투어버스’ 인기 상품으로 떠올라 2018-06-18 13:49:49							, 수정 : 2018-06-18 15:53:35							 | 이상인 선임기자 [티티엘뉴스] 제주도는 지난 17일 제33회 한국국제관광전에서 최우수 부스 우영상을 수상했다. 이번 관광전에서 제주도는 제주도관광협회와 함께 제주 관광을 한 번에 준비할 수 있는 ‘탐나오’와 편리하고 경제적인 ‘시티투어버스’ 홍보로 많은 관람객으로부터 뜨거운 관심을 이끌어 냈다. 올 여름 휴가 시즌 여행지를 알아보기 위해 몰려든 관람객들에게 제주 탐나오와 시티투어버스는 인기 상품으로 떠올랐다. 한편, 제33회 한국국제관광전은 ‘길에서 만난 쉼표’란 주제로 지난 6월 14일부터 17일까지 4일간 서울 코엑스 A홀에서 개최됐다. 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 제주도 공식 여행정보 포털 '탐나오' 한국국제관광전서 부각돼 [인터뷰] 김영진 제주특별자치도 관광협회 회장 '민간이 주도하는 관광제주를 이끈다' 제주는 지금 유채꽃 향연 유별남 작가 제주4.3 사건을 주제로 사진전시회 열어 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
@@ -437,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +618,117 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
